--- a/UZr/UZr_lammps.xlsx
+++ b/UZr/UZr_lammps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/UZr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D5E029-1C7A-494C-B8CB-E20B5BFE91B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CBAA6F-20CA-434A-91C2-0E31B478F60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21220" yWindow="4040" windowWidth="29280" windowHeight="16440" activeTab="7" xr2:uid="{A20C1520-9A2D-E945-AFDD-4A9D75A1116A}"/>
+    <workbookView xWindow="1480" yWindow="5980" windowWidth="29280" windowHeight="16440" activeTab="7" xr2:uid="{A20C1520-9A2D-E945-AFDD-4A9D75A1116A}"/>
   </bookViews>
   <sheets>
     <sheet name="UZr_900K" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="summary" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="78">
   <si>
     <t>u10zr</t>
   </si>
@@ -245,6 +246,27 @@
   </si>
   <si>
     <t>bcc U</t>
+  </si>
+  <si>
+    <t>100 sims</t>
+  </si>
+  <si>
+    <t>N U</t>
+  </si>
+  <si>
+    <t>N Zr</t>
+  </si>
+  <si>
+    <t>200 sims</t>
+  </si>
+  <si>
+    <t>diff 100-200</t>
+  </si>
+  <si>
+    <t>diff 200-100</t>
+  </si>
+  <si>
+    <t>deviation from ideal</t>
   </si>
 </sst>
 </file>
@@ -3670,7 +3692,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3757,48 +3779,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>26.811089926379619</c:v>
+                  <c:v>26.813260556280134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.657698746779602</c:v>
+                  <c:v>26.622245125079139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.789320467979262</c:v>
+                  <c:v>27.397401180479957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.623807073980224</c:v>
+                  <c:v>27.852027553979454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.506237015979849</c:v>
+                  <c:v>27.685612594979755</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.168520316579453</c:v>
+                  <c:v>28.067402276278926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.234959981379539</c:v>
+                  <c:v>27.292728583080322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.253249498579599</c:v>
+                  <c:v>24.16895097587982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.631168825779749</c:v>
+                  <c:v>25.958997100079404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.057640169978839</c:v>
+                  <c:v>25.98842119427966</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.548684889579782</c:v>
+                  <c:v>26.900568114479057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.356704733979512</c:v>
+                  <c:v>26.652392762579286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.584379692380491</c:v>
+                  <c:v>26.583414967979497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1B8E-7F43-9DCF-DAA0BA44CB0C}"/>
@@ -3890,48 +3912,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>27.554410076580268</c:v>
+                  <c:v>27.545245194779415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.523538895780238</c:v>
+                  <c:v>28.047625426080874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.270235581380927</c:v>
+                  <c:v>27.83972731788138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.856788016579802</c:v>
+                  <c:v>27.74831968098081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.455945028379897</c:v>
+                  <c:v>26.270844262381221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.858906943581047</c:v>
+                  <c:v>27.084830474880825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.236952589580991</c:v>
+                  <c:v>28.245635109180487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.35741682078006</c:v>
+                  <c:v>29.122328407680293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.813628056180175</c:v>
+                  <c:v>25.509917891880466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.467648039981313</c:v>
+                  <c:v>26.67771677808047</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.978469609780309</c:v>
+                  <c:v>26.317874576880723</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.039792768581059</c:v>
+                  <c:v>26.42158244988023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.680852132380263</c:v>
+                  <c:v>26.716305754079865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1B8E-7F43-9DCF-DAA0BA44CB0C}"/>
@@ -4023,48 +4045,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>28.318471801379104</c:v>
+                  <c:v>28.3517547931799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.11388706918018</c:v>
+                  <c:v>28.028089756978787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.67493746717966</c:v>
+                  <c:v>28.372496367778943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.081402236579795</c:v>
+                  <c:v>26.342233867979203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.319143641779718</c:v>
+                  <c:v>28.770686363879552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.835081717579769</c:v>
+                  <c:v>27.512203384079722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.163886172779758</c:v>
+                  <c:v>24.074890346879098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.216756536580196</c:v>
+                  <c:v>26.511543000180161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.167366113980059</c:v>
+                  <c:v>29.973938871779154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.207591654779346</c:v>
+                  <c:v>27.351817952580227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.12336774798009</c:v>
+                  <c:v>25.056256242780243</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.382815452179198</c:v>
+                  <c:v>25.983838753380088</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.920103783579432</c:v>
+                  <c:v>26.87548528007984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1B8E-7F43-9DCF-DAA0BA44CB0C}"/>
@@ -4154,48 +4176,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>29.357479980180386</c:v>
+                  <c:v>29.336979586679014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.40378675137914</c:v>
+                  <c:v>29.629049898780217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.707318893978936</c:v>
+                  <c:v>28.674937467180516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.322497264180228</c:v>
+                  <c:v>30.701582250479966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.834536195979801</c:v>
+                  <c:v>27.346511968379058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.518588954978913</c:v>
+                  <c:v>28.658295971279692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.725103135978966</c:v>
+                  <c:v>28.711596994379647</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.431407715578928</c:v>
+                  <c:v>27.587451887279965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.279653100779658</c:v>
+                  <c:v>24.996443329980455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.26602064037969</c:v>
+                  <c:v>25.628096630879419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.310271643979242</c:v>
+                  <c:v>27.803791333978708</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.495079525980113</c:v>
+                  <c:v>26.780459926678979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.013682050379661</c:v>
+                  <c:v>27.021641026680133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-1B8E-7F43-9DCF-DAA0BA44CB0C}"/>
@@ -4285,48 +4307,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>30.682046581380451</c:v>
+                  <c:v>30.616204141081315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.513702173580487</c:v>
+                  <c:v>30.825308154780341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.468360126781</c:v>
+                  <c:v>30.471736662180184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.412050068180193</c:v>
+                  <c:v>28.517446208880571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.353684241980172</c:v>
+                  <c:v>29.397998404980051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.391371652980617</c:v>
+                  <c:v>27.569604485880465</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.098577797580386</c:v>
+                  <c:v>28.005177552480081</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.930652592580593</c:v>
+                  <c:v>28.051484323679702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.601199209980383</c:v>
+                  <c:v>27.058541734980363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.771955428780256</c:v>
+                  <c:v>27.904605033780381</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.618627408580565</c:v>
+                  <c:v>27.121007639880311</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.100444086980328</c:v>
+                  <c:v>27.463484801881052</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.116907561180376</c:v>
+                  <c:v>27.107019136080499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F618-DF4D-8154-38BD85A2C854}"/>
@@ -4451,6 +4473,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4565,8 +4588,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15847834645669293"/>
           <c:y val="0.44935668197725287"/>
-          <c:w val="0.22720691163604548"/>
-          <c:h val="0.35030375109361328"/>
+          <c:w val="0.19891666666666666"/>
+          <c:h val="0.37065835520559931"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -10388,19 +10411,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.811089926379619</c:v>
+                  <c:v>26.813260556280134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.554410076580268</c:v>
+                  <c:v>27.545245194779415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.318471801379104</c:v>
+                  <c:v>28.3517547931799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.357479980180386</c:v>
+                  <c:v>29.336979586679014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.682046581380451</c:v>
+                  <c:v>30.616204141081315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10481,19 +10504,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.657698746779602</c:v>
+                  <c:v>26.622245125079139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.523538895780238</c:v>
+                  <c:v>28.047625426080874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.11388706918018</c:v>
+                  <c:v>28.028089756978787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.40378675137914</c:v>
+                  <c:v>29.629049898780217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.513702173580487</c:v>
+                  <c:v>30.825308154780341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10574,19 +10597,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27.789320467979262</c:v>
+                  <c:v>27.397401180479957</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.270235581380927</c:v>
+                  <c:v>27.83972731788138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.67493746717966</c:v>
+                  <c:v>28.372496367778943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.707318893978936</c:v>
+                  <c:v>28.674937467180516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.468360126781</c:v>
+                  <c:v>30.471736662180184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10667,19 +10690,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.623807073980224</c:v>
+                  <c:v>27.852027553979454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.856788016579802</c:v>
+                  <c:v>27.74831968098081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.081402236579795</c:v>
+                  <c:v>26.342233867979203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.322497264180228</c:v>
+                  <c:v>30.701582250479966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.412050068180193</c:v>
+                  <c:v>28.517446208880571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10760,19 +10783,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.506237015979849</c:v>
+                  <c:v>27.685612594979755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.455945028379897</c:v>
+                  <c:v>26.270844262381221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.319143641779718</c:v>
+                  <c:v>28.770686363879552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.834536195979801</c:v>
+                  <c:v>27.346511968379058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.353684241980172</c:v>
+                  <c:v>29.397998404980051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10853,19 +10876,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27.168520316579453</c:v>
+                  <c:v>28.067402276278926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.858906943581047</c:v>
+                  <c:v>27.084830474880825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.835081717579769</c:v>
+                  <c:v>27.512203384079722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.518588954978913</c:v>
+                  <c:v>28.658295971279692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.391371652980617</c:v>
+                  <c:v>27.569604485880465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10952,19 +10975,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.234959981379539</c:v>
+                  <c:v>27.292728583080322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.236952589580991</c:v>
+                  <c:v>28.245635109180487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.163886172779758</c:v>
+                  <c:v>24.074890346879098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.725103135978966</c:v>
+                  <c:v>28.711596994379647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.098577797580386</c:v>
+                  <c:v>28.005177552480081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11051,19 +11074,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.253249498579599</c:v>
+                  <c:v>24.16895097587982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.35741682078006</c:v>
+                  <c:v>29.122328407680293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.216756536580196</c:v>
+                  <c:v>26.511543000180161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.431407715578928</c:v>
+                  <c:v>27.587451887279965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.930652592580593</c:v>
+                  <c:v>28.051484323679702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11150,19 +11173,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.631168825779749</c:v>
+                  <c:v>25.958997100079404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.813628056180175</c:v>
+                  <c:v>25.509917891880466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.167366113980059</c:v>
+                  <c:v>29.973938871779154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.279653100779658</c:v>
+                  <c:v>24.996443329980455</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.601199209980383</c:v>
+                  <c:v>27.058541734980363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11249,19 +11272,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.057640169978839</c:v>
+                  <c:v>25.98842119427966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.467648039981313</c:v>
+                  <c:v>26.67771677808047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.207591654779346</c:v>
+                  <c:v>27.351817952580227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.26602064037969</c:v>
+                  <c:v>25.628096630879419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.771955428780256</c:v>
+                  <c:v>27.904605033780381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11348,19 +11371,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.548684889579782</c:v>
+                  <c:v>26.900568114479057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.978469609780309</c:v>
+                  <c:v>26.317874576880723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.12336774798009</c:v>
+                  <c:v>25.056256242780243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.310271643979242</c:v>
+                  <c:v>27.803791333978708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.618627408580565</c:v>
+                  <c:v>27.121007639880311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11447,19 +11470,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.356704733979512</c:v>
+                  <c:v>26.652392762579286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.039792768581059</c:v>
+                  <c:v>26.42158244988023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.382815452179198</c:v>
+                  <c:v>25.983838753380088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.495079525980113</c:v>
+                  <c:v>26.780459926678979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.100444086980328</c:v>
+                  <c:v>27.463484801881052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11549,19 +11572,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.584379692380491</c:v>
+                  <c:v>26.583414967979497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.680852132380263</c:v>
+                  <c:v>26.716305754079865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.920103783579432</c:v>
+                  <c:v>26.87548528007984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.013682050379661</c:v>
+                  <c:v>27.021641026680133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.116907561180376</c:v>
+                  <c:v>27.107019136080499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13222,9 +13245,46 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1698113207547172E-2"/>
+                  <c:y val="-0.43163281264206871"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -13281,43 +13341,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>28.54469967317997</c:v>
+                  <c:v>28.532688854399954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.64252272733993</c:v>
+                  <c:v>28.630463672339875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.582034507459959</c:v>
+                  <c:v>28.551259799100194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.659308931900046</c:v>
+                  <c:v>28.232321912459998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.69390922481989</c:v>
+                  <c:v>27.894330718919928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.754493917139961</c:v>
+                  <c:v>27.778467318479926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.491895935459929</c:v>
+                  <c:v>27.266005717199924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.037896632819876</c:v>
+                  <c:v>27.088351718939986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.698603061340002</c:v>
+                  <c:v>26.699567785739969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.754171186779889</c:v>
+                  <c:v>26.710131517920029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.515884259979998</c:v>
+                  <c:v>26.63989958159981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.674967313540044</c:v>
+                  <c:v>26.660351738879921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.863185043980042</c:v>
+                  <c:v>26.860773232979966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13579,19 +13639,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.709497026102728</c:v>
+                  <c:v>26.767955614264185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.391891119965102</c:v>
+                  <c:v>27.19599640958824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.886523953502788</c:v>
+                  <c:v>27.169633460118071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.358878911825666</c:v>
+                  <c:v>27.913602944048908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.312275302349672</c:v>
+                  <c:v>28.469970636965023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33131,16 +33191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33169,16 +33229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33833,16 +33893,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34543,14 +34603,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8E7BFD-E037-0442-8AD7-961B5B96744E}">
-  <dimension ref="B5:J18"/>
+  <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
@@ -34874,7 +34939,7 @@
         <v>-8.0236170810000118E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>-6.0184799091999999</v>
       </c>
@@ -34901,7 +34966,7 @@
         <v>-4.6233202929999884E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>-6.0640573377999996</v>
       </c>
@@ -34926,6 +34991,485 @@
       <c r="J18">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>-10331.2335</v>
+      </c>
+      <c r="C22">
+        <v>2000</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E34" si="2">D22/SUM(C22:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>B22/SUM(C22:D22)</f>
+        <v>-5.1656167499999999</v>
+      </c>
+      <c r="G22">
+        <f>F22-(1-E22)*$F$22-E22*$F$34</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>ABS(G22-J6)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" t="e">
+        <f>ABS(E22*100-A22)/A22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>-10395.674999999999</v>
+      </c>
+      <c r="C23">
+        <v>1900.59</v>
+      </c>
+      <c r="D23">
+        <v>99.41</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>4.9704999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F34" si="3">B23/SUM(C23:D23)</f>
+        <v>-5.1978374999999994</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G34" si="4">F23-(1-E23)*$F$22-E23*$F$34</f>
+        <v>1.3158349292500426E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H34" si="5">ABS(G23-J7)</f>
+        <v>3.5385057499115469E-5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J34" si="6">ABS(E23*100-A23)/A23</f>
+        <v>5.9000000000001048E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>-10489.895500000001</v>
+      </c>
+      <c r="C24">
+        <v>1799.925</v>
+      </c>
+      <c r="D24">
+        <v>200.07499999999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0.10003749999999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>-5.2449477500000006</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>1.2000086318749381E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>9.2706718749502315E-5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>3.7499999999983656E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>-10601.134</v>
+      </c>
+      <c r="C25">
+        <v>1699.23</v>
+      </c>
+      <c r="D25">
+        <v>300.77</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0.15038499999999999</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>-5.300567</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>2.3465178725001756E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>2.1044765250100017E-4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>2.566666666666606E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>-10792.277</v>
+      </c>
+      <c r="C26">
+        <v>1540.4949999999999</v>
+      </c>
+      <c r="D26">
+        <v>459.505</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0.2297525</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>-5.3961385000000002</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>-2.0764954703750726E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>3.1410203750859012E-5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>1.0760869565217799E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>-10968.544</v>
+      </c>
+      <c r="C27">
+        <v>1398.22</v>
+      </c>
+      <c r="D27">
+        <v>601.78</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0.30088999999999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>-5.4842719999999998</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>-4.3952158034999966E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>1.1402450499953254E-4</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>2.9666666666666214E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>-11207.699000000001</v>
+      </c>
+      <c r="C28">
+        <v>1200.385</v>
+      </c>
+      <c r="D28">
+        <v>799.61500000000001</v>
+      </c>
+      <c r="E28">
+        <f>D28/SUM(C28:D28)</f>
+        <v>0.39980749999999998</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>-5.6038494999999999</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>-7.3221096436249855E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>4.5570368375047465E-4</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>4.8124999999998863E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>-11430.386500000001</v>
+      </c>
+      <c r="C29">
+        <v>1002.03</v>
+      </c>
+      <c r="D29">
+        <v>997.97</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.49898500000000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>-5.7151932500000004</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>-9.4018913027500428E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>3.0549966750070823E-4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>2.0300000000000296E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>-11635.475</v>
+      </c>
+      <c r="C30">
+        <v>799.47500000000002</v>
+      </c>
+      <c r="D30">
+        <v>1200.5250000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0.60026250000000003</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>-5.8177374999999998</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>-0.10409999576874984</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>1.0680376125060675E-4</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>4.3750000000007579E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>-11808.1255</v>
+      </c>
+      <c r="C31">
+        <v>601.79999999999995</v>
+      </c>
+      <c r="D31">
+        <v>1398.2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>-5.9040627500000005</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>-0.10018972165000051</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>3.2451649000098115E-4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>1.2857142857141315E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>80</v>
+      </c>
+      <c r="B32">
+        <v>-11953.339</v>
+      </c>
+      <c r="C32">
+        <v>399.38499999999999</v>
+      </c>
+      <c r="D32">
+        <v>1600.615</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0.80030749999999995</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>-5.9766694999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>-8.03972121862504E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>1.6104137625028159E-4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>3.8437499999997014E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>-12067.258</v>
+      </c>
+      <c r="C33">
+        <v>199.995</v>
+      </c>
+      <c r="D33">
+        <v>1800.0050000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0.90000250000000004</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>-6.0336289999999995</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>-4.6338317578749511E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>1.0511464874962684E-4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>2.7777777778699906E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>-12157.1705</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>-6.0785852499999997</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f>MAX(J23:J34)</f>
+        <v>5.9000000000001048E-3</v>
       </c>
     </row>
   </sheetData>
@@ -34936,10 +35480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF3774A-0E78-3045-8094-8A02FB958156}">
-  <dimension ref="B1:W149"/>
+  <dimension ref="B1:Z149"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:W16"/>
+    <sheetView topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37:Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34953,6 +35497,9 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="O3" t="s">
@@ -36001,7 +36548,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>100000</v>
       </c>
@@ -36024,7 +36571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E34">
         <f>AVERAGE(E24:E33)/2000</f>
         <v>21.578121007100002</v>
@@ -36042,12 +36589,12 @@
         <v>5.0884663745547156</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>100000</v>
       </c>
@@ -36069,8 +36616,11 @@
       <c r="H36">
         <v>301</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>100000</v>
       </c>
@@ -36092,8 +36642,32 @@
       <c r="H37">
         <v>307</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s">
+        <v>10</v>
+      </c>
+      <c r="V37" t="s">
+        <v>8</v>
+      </c>
+      <c r="W37" t="s">
+        <v>9</v>
+      </c>
+      <c r="X37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>100000</v>
       </c>
@@ -36115,8 +36689,40 @@
       <c r="H38">
         <v>282</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>-10301.498</v>
+      </c>
+      <c r="S38">
+        <v>2000</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:U50" si="1">T38/SUM(S38:T38)</f>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f>R38/SUM(S38:T38)</f>
+        <v>-5.1507489999999994</v>
+      </c>
+      <c r="W38">
+        <f>V38-(1-U38)*$V$38-U38*$V$50</f>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f>ABS(V38-T4)</f>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="Z38" t="e">
+        <f>ABS(U38*100-Q38)/Q38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>100000</v>
       </c>
@@ -36138,8 +36744,40 @@
       <c r="H39">
         <v>311</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>-10366.335499999999</v>
+      </c>
+      <c r="S39">
+        <v>1899.61</v>
+      </c>
+      <c r="T39">
+        <v>100.39</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>5.0195000000000004E-2</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ref="V39:V50" si="2">R39/SUM(S39:T39)</f>
+        <v>-5.18316775</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ref="W39:W50" si="3">V39-(1-U39)*$V$38-U39*$V$50</f>
+        <v>1.34196628162499E-2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" ref="X39:X50" si="4">ABS(V39-T5)</f>
+        <v>5.4249999999811394E-5</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" ref="Z39:Z50" si="5">ABS(U39*100-Q39)/Q39</f>
+        <v>3.9000000000001477E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>100000</v>
       </c>
@@ -36181,8 +36819,40 @@
         <f>AVERAGE(E36:E45)/2000</f>
         <v>21.6421340158</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>-10458.949000000001</v>
+      </c>
+      <c r="S40">
+        <v>1800.5</v>
+      </c>
+      <c r="T40">
+        <v>199.5</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="1"/>
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="2"/>
+        <v>-5.2294745000000002</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="3"/>
+        <v>1.2366873312499527E-2</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="4"/>
+        <v>1.9949999999990808E-4</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="5"/>
+        <v>2.4999999999998578E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>100000</v>
       </c>
@@ -36204,8 +36874,40 @@
       <c r="H41">
         <v>289</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>15</v>
+      </c>
+      <c r="R41">
+        <v>-10569.245000000001</v>
+      </c>
+      <c r="S41">
+        <v>1700.57</v>
+      </c>
+      <c r="T41">
+        <v>299.43</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="1"/>
+        <v>0.14971500000000001</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="2"/>
+        <v>-5.2846225000000002</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="3"/>
+        <v>2.8472485762491839E-3</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="4"/>
+        <v>1.2649999999947426E-4</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="5"/>
+        <v>1.8999999999999536E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>100000</v>
       </c>
@@ -36227,8 +36929,40 @@
       <c r="H42">
         <v>278</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>23</v>
+      </c>
+      <c r="R42">
+        <v>-10760.733</v>
+      </c>
+      <c r="S42">
+        <v>1541.855</v>
+      </c>
+      <c r="T42">
+        <v>458.14499999999998</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="1"/>
+        <v>0.22907249999999998</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="2"/>
+        <v>-5.3803665000000001</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="3"/>
+        <v>-2.042694676062573E-2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="4"/>
+        <v>7.3149999999966298E-4</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="5"/>
+        <v>4.0326086956522754E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>100000</v>
       </c>
@@ -36250,8 +36984,40 @@
       <c r="H43">
         <v>322</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>30</v>
+      </c>
+      <c r="R43">
+        <v>-10936.208500000001</v>
+      </c>
+      <c r="S43">
+        <v>1400.75</v>
+      </c>
+      <c r="T43">
+        <v>599.25</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="1"/>
+        <v>0.29962499999999997</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="2"/>
+        <v>-5.4681042500000006</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="3"/>
+        <v>-4.3735677531251405E-2</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="4"/>
+        <v>5.0174999999974546E-4</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000473E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>100000</v>
       </c>
@@ -36273,8 +37039,40 @@
       <c r="H44">
         <v>315</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>40</v>
+      </c>
+      <c r="R44">
+        <v>-11176.969499999999</v>
+      </c>
+      <c r="S44">
+        <v>1201.44</v>
+      </c>
+      <c r="T44">
+        <v>798.56</v>
+      </c>
+      <c r="U44">
+        <f>T44/SUM(S44:T44)</f>
+        <v>0.39927999999999997</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="2"/>
+        <v>-5.5884847499999992</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="3"/>
+        <v>-7.3110558859999841E-2</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="4"/>
+        <v>3.0574999999899433E-4</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000683E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>100000</v>
       </c>
@@ -36296,8 +37094,40 @@
       <c r="H45">
         <v>282</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>50</v>
+      </c>
+      <c r="R45">
+        <v>-11406.133</v>
+      </c>
+      <c r="S45">
+        <v>998.04</v>
+      </c>
+      <c r="T45">
+        <v>1001.96</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="1"/>
+        <v>0.50097999999999998</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="2"/>
+        <v>-5.7030665000000003</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="3"/>
+        <v>-9.4819182385000644E-2</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="4"/>
+        <v>8.159999999994838E-4</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="5"/>
+        <v>1.9599999999999796E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E46">
         <f>AVERAGE(E36:E45)/2000</f>
         <v>21.6421340158</v>
@@ -36314,13 +37144,77 @@
         <f>STDEV(D36:D45)/SQRT(COUNT(D36:D45))</f>
         <v>5.726342360622013</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>60</v>
+      </c>
+      <c r="R46">
+        <v>-11607.5105</v>
+      </c>
+      <c r="S46">
+        <v>797.84500000000003</v>
+      </c>
+      <c r="T46">
+        <v>1202.155</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="1"/>
+        <v>0.60107749999999993</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>-5.80375525</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="3"/>
+        <v>-0.10409821972687539</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="4"/>
+        <v>1.2467499999999632E-3</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="5"/>
+        <v>1.7958333333332633E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>70</v>
+      </c>
+      <c r="R47">
+        <v>-11721.199500000001</v>
+      </c>
+      <c r="S47">
+        <v>597.86</v>
+      </c>
+      <c r="T47">
+        <v>1392.14</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="1"/>
+        <v>0.69956783919597998</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="2"/>
+        <v>-5.8900500000000005</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="3"/>
+        <v>-0.10045092716331716</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="4"/>
+        <v>1.0989999999999611E-3</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="5"/>
+        <v>6.1737257717149011E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>100000</v>
       </c>
@@ -36342,8 +37236,40 @@
       <c r="H48">
         <v>443</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>80</v>
+      </c>
+      <c r="R48">
+        <v>-11923.422500000001</v>
+      </c>
+      <c r="S48">
+        <v>402.10500000000002</v>
+      </c>
+      <c r="T48">
+        <v>1597.895</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="1"/>
+        <v>0.79894750000000003</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="2"/>
+        <v>-5.9617112500000005</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="3"/>
+        <v>-8.1358000104375883E-2</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="4"/>
+        <v>3.4524999999963057E-4</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="5"/>
+        <v>1.3156249999999759E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>100000</v>
       </c>
@@ -36365,8 +37291,40 @@
       <c r="H49">
         <v>455</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>90</v>
+      </c>
+      <c r="R49">
+        <v>-12037.856</v>
+      </c>
+      <c r="S49">
+        <v>201.19499999999999</v>
+      </c>
+      <c r="T49">
+        <v>1798.8050000000001</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="1"/>
+        <v>0.89940249999999999</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="2"/>
+        <v>-6.0189279999999998</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="3"/>
+        <v>-4.6838566033125417E-2</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="4"/>
+        <v>1.2749999999961403E-4</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="5"/>
+        <v>6.6388888888882199E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>100000</v>
       </c>
@@ -36388,8 +37346,40 @@
       <c r="H50">
         <v>500</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>100</v>
+      </c>
+      <c r="R50">
+        <v>-12127.9115</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2000</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="2"/>
+        <v>-6.0639557499999999</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="4"/>
+        <v>3.7500000003021228E-6</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>100000</v>
       </c>
@@ -36412,7 +37402,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>100000</v>
       </c>
@@ -36454,8 +37444,12 @@
         <f>AVERAGE(E48:E57)/2000</f>
         <v>21.724130398299994</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Z52">
+        <f>MAX(Z39:Z50)</f>
+        <v>4.0326086956522754E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>100000</v>
       </c>
@@ -36478,7 +37472,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>100000</v>
       </c>
@@ -36501,7 +37495,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>100000</v>
       </c>
@@ -36524,7 +37518,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>100000</v>
       </c>
@@ -36547,7 +37541,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>100000</v>
       </c>
@@ -36570,7 +37564,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="E58">
         <f>AVERAGE(E48:E57)/2000</f>
         <v>21.724130398299994</v>
@@ -36588,12 +37582,12 @@
         <v>6.9987420548063746</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>100000</v>
       </c>
@@ -36616,7 +37610,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>100000</v>
       </c>
@@ -36639,7 +37633,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>100000</v>
       </c>
@@ -36662,7 +37656,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>100000</v>
       </c>
@@ -36685,7 +37679,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>100000</v>
       </c>
@@ -38665,10 +39659,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E4EB53-8BE4-6C40-ADC5-4E011581A7D6}">
-  <dimension ref="B3:W148"/>
+  <dimension ref="B3:Y148"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:W20"/>
+    <sheetView topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42:Y57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39732,7 +40726,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>AVERAGE(E23:E27)/2000</f>
         <v>21.682692963500003</v>
@@ -39750,12 +40744,12 @@
         <v>3.0774503041925594</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>100000</v>
       </c>
@@ -39778,7 +40772,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>100000</v>
       </c>
@@ -39801,7 +40795,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>100000</v>
       </c>
@@ -39824,7 +40818,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>100000</v>
       </c>
@@ -39847,7 +40841,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>100000</v>
       </c>
@@ -39890,7 +40884,7 @@
         <v>21.739584443349997</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>100000</v>
       </c>
@@ -39913,7 +40907,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>100000</v>
       </c>
@@ -39935,8 +40929,11 @@
       <c r="H41">
         <v>277</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>100000</v>
       </c>
@@ -39958,8 +40955,32 @@
       <c r="H42">
         <v>303</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s">
+        <v>72</v>
+      </c>
+      <c r="S42" t="s">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s">
+        <v>10</v>
+      </c>
+      <c r="U42" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>100000</v>
       </c>
@@ -39981,8 +41002,40 @@
       <c r="H43">
         <v>295</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-10270.245000000001</v>
+      </c>
+      <c r="R43">
+        <v>2000</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ref="T43:T55" si="1">S43/SUM(R43:S43)</f>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f>Q43/SUM(R43:S43)</f>
+        <v>-5.1351225000000005</v>
+      </c>
+      <c r="V43">
+        <f>U43-(1-T43)*$U$43-T43*$U$55</f>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>ABS(U43-T8)</f>
+        <v>7.5000000006042455E-6</v>
+      </c>
+      <c r="Y43" t="e">
+        <f>ABS(T43*100-P43)/P43</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>100000</v>
       </c>
@@ -40004,8 +41057,40 @@
       <c r="H44">
         <v>275</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <v>-10334.040999999999</v>
+      </c>
+      <c r="R44">
+        <v>1900.5150000000001</v>
+      </c>
+      <c r="S44">
+        <v>99.484999999999999</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>4.9742500000000002E-2</v>
+      </c>
+      <c r="U44">
+        <f t="shared" ref="U44:U55" si="2">Q44/SUM(R44:S44)</f>
+        <v>-5.1670204999999996</v>
+      </c>
+      <c r="V44">
+        <f t="shared" ref="V44:V55" si="3">U44-(1-T44)*$U$43-T44*$U$55</f>
+        <v>1.3569928005000453E-2</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W55" si="4">ABS(U44-T9)</f>
+        <v>4.8900000000084987E-4</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" ref="Y44:Y55" si="5">ABS(T44*100-P44)/P44</f>
+        <v>5.1499999999998994E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E45">
         <f>AVERAGE(E35:E39)/2000</f>
         <v>21.741358886699999</v>
@@ -40022,13 +41107,77 @@
         <f>STDEV(D35:D44)/SQRT(COUNT(D35:D44))</f>
         <v>4.9614043328477626</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>10</v>
+      </c>
+      <c r="Q45">
+        <v>-10427.085499999999</v>
+      </c>
+      <c r="R45">
+        <v>1801.0150000000001</v>
+      </c>
+      <c r="S45">
+        <v>198.98500000000001</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>9.9492500000000011E-2</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>-5.2135427499999993</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="3"/>
+        <v>1.2522461505001026E-2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="4"/>
+        <v>2.4674999999962921E-4</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="5"/>
+        <v>5.0749999999998964E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>15</v>
+      </c>
+      <c r="Q46">
+        <v>-10537.571</v>
+      </c>
+      <c r="R46">
+        <v>1700.825</v>
+      </c>
+      <c r="S46">
+        <v>299.17500000000001</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>0.14958750000000001</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>-5.2687854999999999</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="3"/>
+        <v>3.0698477750011888E-3</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="4"/>
+        <v>1.0224999999994822E-3</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="5"/>
+        <v>2.7499999999998676E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>100000</v>
       </c>
@@ -40050,8 +41199,40 @@
       <c r="H47">
         <v>437</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>23</v>
+      </c>
+      <c r="Q47">
+        <v>-10732.121999999999</v>
+      </c>
+      <c r="R47">
+        <v>1540.125</v>
+      </c>
+      <c r="S47">
+        <v>459.875</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>0.22993749999999999</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>-5.3660609999999993</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="3"/>
+        <v>-2.0760449124998859E-2</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="4"/>
+        <v>1.5334999999989662E-3</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="5"/>
+        <v>2.7173913043484441E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>100000</v>
       </c>
@@ -40073,8 +41254,40 @@
       <c r="H48">
         <v>474</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>30</v>
+      </c>
+      <c r="Q48">
+        <v>-10905.91</v>
+      </c>
+      <c r="R48">
+        <v>1400.2850000000001</v>
+      </c>
+      <c r="S48">
+        <v>599.71500000000003</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>0.2998575</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>-5.4529550000000002</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="3"/>
+        <v>-4.3742954404999868E-2</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="4"/>
+        <v>1.7724999999995106E-3</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="5"/>
+        <v>4.75000000000018E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>100000</v>
       </c>
@@ -40096,8 +41309,40 @@
       <c r="H49">
         <v>448</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>40</v>
+      </c>
+      <c r="Q49">
+        <v>-11144.264499999999</v>
+      </c>
+      <c r="R49">
+        <v>1203.4849999999999</v>
+      </c>
+      <c r="S49">
+        <v>796.51499999999999</v>
+      </c>
+      <c r="T49">
+        <f>S49/SUM(R49:S49)</f>
+        <v>0.39825749999999999</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>-5.5721322499999992</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="3"/>
+        <v>-7.2976110004998596E-2</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="4"/>
+        <v>2.9674999999951268E-4</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="5"/>
+        <v>4.3562500000000172E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>100000</v>
       </c>
@@ -40119,8 +41364,40 @@
       <c r="H50">
         <v>428</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>50</v>
+      </c>
+      <c r="Q50">
+        <v>-11371.610500000001</v>
+      </c>
+      <c r="R50">
+        <v>1002.1950000000001</v>
+      </c>
+      <c r="S50">
+        <v>997.80499999999995</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>0.49890249999999997</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>-5.6858052500000005</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="3"/>
+        <v>-9.4652937435000251E-2</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="4"/>
+        <v>4.6425000000027694E-4</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="5"/>
+        <v>2.195000000000107E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>100000</v>
       </c>
@@ -40162,8 +41439,40 @@
         <f>AVERAGE(E47:E56)/2000</f>
         <v>21.812028788550002</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>60</v>
+      </c>
+      <c r="Q51">
+        <v>-11580.477000000001</v>
+      </c>
+      <c r="R51">
+        <v>796.12</v>
+      </c>
+      <c r="S51">
+        <v>1203.8800000000001</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0.60194000000000003</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>-5.7902385000000001</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="3"/>
+        <v>-0.10490311195999968</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="4"/>
+        <v>5.2499999999966462E-4</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="5"/>
+        <v>3.2333333333333771E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>100000</v>
       </c>
@@ -40185,8 +41494,40 @@
       <c r="H52">
         <v>457</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>70</v>
+      </c>
+      <c r="Q52">
+        <v>-11750.645500000001</v>
+      </c>
+      <c r="R52">
+        <v>600.88</v>
+      </c>
+      <c r="S52">
+        <v>1399.12</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>0.69955999999999996</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>-5.8753227500000005</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="3"/>
+        <v>-0.10075623904000075</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="4"/>
+        <v>1.3167499999990895E-3</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="5"/>
+        <v>6.2857142857158769E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>100000</v>
       </c>
@@ -40208,8 +41549,40 @@
       <c r="H53">
         <v>459</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>80</v>
+      </c>
+      <c r="Q53">
+        <v>-11894.714</v>
+      </c>
+      <c r="R53">
+        <v>401.35</v>
+      </c>
+      <c r="S53">
+        <v>1598.65</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>0.79932500000000006</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>-5.9473570000000002</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="3"/>
+        <v>-8.1598694549999351E-2</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="4"/>
+        <v>3.3949999999993707E-4</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="5"/>
+        <v>8.4374999999994318E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>100000</v>
       </c>
@@ -40231,8 +41604,40 @@
       <c r="H54">
         <v>475</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>90</v>
+      </c>
+      <c r="Q54">
+        <v>-12008.932500000001</v>
+      </c>
+      <c r="R54">
+        <v>200.89500000000001</v>
+      </c>
+      <c r="S54">
+        <v>1799.105</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>0.89955249999999998</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>-6.0044662500000001</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="3"/>
+        <v>-4.7093394534999611E-2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="4"/>
+        <v>2.6824999999952581E-4</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="5"/>
+        <v>4.9722222222230682E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>100000</v>
       </c>
@@ -40254,8 +41659,40 @@
       <c r="H55">
         <v>468</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <v>-12098.377</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>2000</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="2"/>
+        <v>-6.0491885000000005</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="4"/>
+        <v>3.2999999999283602E-5</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>100000</v>
       </c>
@@ -40278,7 +41715,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E57">
         <f>AVERAGE(E47:E51)/2000</f>
         <v>21.8119475771</v>
@@ -40295,13 +41732,17 @@
         <f>STDEV(D47:D56)/SQRT(COUNT(D47:D56))</f>
         <v>6.0155107648299913</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Y57">
+        <f>MAX(Y44:Y55)</f>
+        <v>5.1499999999998994E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>100000</v>
       </c>
@@ -40324,7 +41765,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>100000</v>
       </c>
@@ -40347,7 +41788,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>100000</v>
       </c>
@@ -40370,7 +41811,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>100000</v>
       </c>
@@ -40393,7 +41834,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>100000</v>
       </c>
@@ -40436,7 +41877,7 @@
         <v>21.865807034749999</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>100000</v>
       </c>
@@ -42368,10 +43809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7412E4A6-03FB-4748-B971-2A602AA3331C}">
-  <dimension ref="A1:W148"/>
+  <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:W20"/>
+    <sheetView topLeftCell="G23" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39:Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43416,7 +44857,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>AVERAGE(E23:E27)/2000</f>
         <v>21.796693466000001</v>
@@ -43434,12 +44875,12 @@
         <v>4.3820029429172278</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>100000</v>
       </c>
@@ -43462,7 +44903,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>100000</v>
       </c>
@@ -43485,7 +44926,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>100000</v>
       </c>
@@ -43508,7 +44949,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>100000</v>
       </c>
@@ -43530,8 +44971,11 @@
       <c r="H38">
         <v>321</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>100000</v>
       </c>
@@ -43573,8 +45017,32 @@
         <f>AVERAGE(E35:E44)/2000</f>
         <v>21.851152346599999</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s">
+        <v>73</v>
+      </c>
+      <c r="T39" t="s">
+        <v>10</v>
+      </c>
+      <c r="U39" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" t="s">
+        <v>9</v>
+      </c>
+      <c r="W39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>100000</v>
       </c>
@@ -43596,8 +45064,40 @@
       <c r="H40">
         <v>306</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>-10237.32</v>
+      </c>
+      <c r="R40">
+        <v>2000</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" ref="T40:T52" si="1">S40/SUM(R40:S40)</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f>Q40/SUM(R40:S40)</f>
+        <v>-5.1186600000000002</v>
+      </c>
+      <c r="V40">
+        <f>U40-(1-T40)*$U$40-T40*$U$52</f>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f>ABS(U40-T8)</f>
+        <v>2.7000000000221291E-5</v>
+      </c>
+      <c r="Y40" t="e">
+        <f>ABS(T40*100-P40)/P40</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>100000</v>
       </c>
@@ -43619,8 +45119,40 @@
       <c r="H41">
         <v>292</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>-10301.787</v>
+      </c>
+      <c r="R41">
+        <v>1899.2</v>
+      </c>
+      <c r="S41">
+        <v>100.8</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>5.04E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" ref="U41:U52" si="2">Q41/SUM(R41:S41)</f>
+        <v>-5.1508935000000005</v>
+      </c>
+      <c r="V41">
+        <f t="shared" ref="V41:V52" si="3">U41-(1-T41)*$U$40-T41*$U$52</f>
+        <v>1.3912550999999718E-2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" ref="W41:W52" si="4">ABS(U41-T9)</f>
+        <v>6.3650000000059492E-4</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" ref="Y41:Y52" si="5">ABS(T41*100-P41)/P41</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>100000</v>
       </c>
@@ -43642,8 +45174,40 @@
       <c r="H42">
         <v>265</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <v>-10394.1175</v>
+      </c>
+      <c r="R42">
+        <v>1800.655</v>
+      </c>
+      <c r="S42">
+        <v>199.345</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>9.9672499999999997E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>-5.1970587500000001</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="3"/>
+        <v>1.286101722812516E-2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="4"/>
+        <v>5.6025000000037295E-4</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="5"/>
+        <v>3.2750000000000058E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>100000</v>
       </c>
@@ -43665,8 +45229,40 @@
       <c r="H43">
         <v>316</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>15</v>
+      </c>
+      <c r="Q43">
+        <v>-10508.812</v>
+      </c>
+      <c r="R43">
+        <v>1697.55</v>
+      </c>
+      <c r="S43">
+        <v>302.45</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>0.151225</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>-5.2544060000000004</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="3"/>
+        <v>2.7150429062505754E-3</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="4"/>
+        <v>1.3209999999999056E-3</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="5"/>
+        <v>8.1666666666667005E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>100000</v>
       </c>
@@ -43688,8 +45284,40 @@
       <c r="H44">
         <v>299</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>23</v>
+      </c>
+      <c r="Q44">
+        <v>-10698.3285</v>
+      </c>
+      <c r="R44">
+        <v>1541.73</v>
+      </c>
+      <c r="S44">
+        <v>458.27</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>0.22913499999999998</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>-5.3491642499999994</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="3"/>
+        <v>-2.0709103256249195E-2</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="4"/>
+        <v>2.0442500000008579E-3</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="5"/>
+        <v>3.760869565217431E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E45">
         <f>AVERAGE(E35:E39)/2000</f>
         <v>21.851534693200001</v>
@@ -43706,13 +45334,77 @@
         <f>STDEV(D35:D44)/SQRT(COUNT(D35:D44))</f>
         <v>7.3945002978258305</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>30</v>
+      </c>
+      <c r="Q45">
+        <v>-10874.7255</v>
+      </c>
+      <c r="R45">
+        <v>1399.2850000000001</v>
+      </c>
+      <c r="S45">
+        <v>600.71500000000003</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>0.3003575</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>-5.4373627500000001</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="3"/>
+        <v>-4.3696549340625168E-2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="4"/>
+        <v>4.0124999999946453E-4</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="5"/>
+        <v>1.1916666666666722E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>40</v>
+      </c>
+      <c r="Q46">
+        <v>-11120.206</v>
+      </c>
+      <c r="R46">
+        <v>1197.7950000000001</v>
+      </c>
+      <c r="S46">
+        <v>802.20500000000004</v>
+      </c>
+      <c r="T46">
+        <f>S46/SUM(R46:S46)</f>
+        <v>0.40110250000000003</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>-5.5601029999999998</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="3"/>
+        <v>-7.419505513437441E-2</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="4"/>
+        <v>3.8900000000019475E-4</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="5"/>
+        <v>2.7562500000000156E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>100000</v>
       </c>
@@ -43734,8 +45426,40 @@
       <c r="H47">
         <v>440</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>50</v>
+      </c>
+      <c r="Q47">
+        <v>-11342.5005</v>
+      </c>
+      <c r="R47">
+        <v>1000.91</v>
+      </c>
+      <c r="S47">
+        <v>999.09</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>0.49954500000000002</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>-5.6712502499999999</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="3"/>
+        <v>-9.5208721293749576E-2</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="4"/>
+        <v>1.1952500000003141E-3</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="5"/>
+        <v>9.0999999999993972E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>100000</v>
       </c>
@@ -43757,8 +45481,40 @@
       <c r="H48">
         <v>492</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>60</v>
+      </c>
+      <c r="Q48">
+        <v>-11544.189</v>
+      </c>
+      <c r="R48">
+        <v>802.11</v>
+      </c>
+      <c r="S48">
+        <v>1197.8900000000001</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>0.59894500000000006</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>-5.7720945000000006</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="3"/>
+        <v>-0.10504270404375005</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="4"/>
+        <v>7.2550000000060066E-4</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="5"/>
+        <v>1.7583333333332026E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>100000</v>
       </c>
@@ -43780,8 +45536,40 @@
       <c r="H49">
         <v>432</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>70</v>
+      </c>
+      <c r="Q49">
+        <v>-11719.7935</v>
+      </c>
+      <c r="R49">
+        <v>602.22500000000002</v>
+      </c>
+      <c r="S49">
+        <v>1397.7750000000001</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>0.69888749999999999</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>-5.8598967499999999</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="3"/>
+        <v>-0.10133797582812498</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="4"/>
+        <v>1.4662500000000023E-3</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="5"/>
+        <v>1.58928571428569E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>100000</v>
       </c>
@@ -43803,8 +45591,40 @@
       <c r="H50">
         <v>467</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>80</v>
+      </c>
+      <c r="Q50">
+        <v>-11868.620999999999</v>
+      </c>
+      <c r="R50">
+        <v>396.7</v>
+      </c>
+      <c r="S50">
+        <v>1603.3</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>0.80164999999999997</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>-5.9343104999999996</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="3"/>
+        <v>-8.1662766187498903E-2</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="4"/>
+        <v>6.275000000002251E-4</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="5"/>
+        <v>2.0624999999999004E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>100000</v>
       </c>
@@ -43846,8 +45666,40 @@
         <f>AVERAGE(E47:E56)/2000</f>
         <v>21.915309900850001</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>90</v>
+      </c>
+      <c r="Q51">
+        <v>-11980.916499999999</v>
+      </c>
+      <c r="R51">
+        <v>198.73</v>
+      </c>
+      <c r="S51">
+        <v>1801.27</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0.90063499999999996</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>-5.9904582499999997</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="3"/>
+        <v>-4.7180221381249332E-2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="4"/>
+        <v>8.9125000000045418E-4</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="5"/>
+        <v>7.0555555555545067E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>100000</v>
       </c>
@@ -43869,8 +45721,40 @@
       <c r="H52">
         <v>448</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>100</v>
+      </c>
+      <c r="Q52">
+        <v>-12068.512500000001</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>2000</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>-6.0342562500000003</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="4"/>
+        <v>1.3250000000297746E-5</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>100000</v>
       </c>
@@ -43893,7 +45777,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>100000</v>
       </c>
@@ -43915,8 +45799,12 @@
       <c r="H54">
         <v>450</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Y54">
+        <f>MAX(Y41:Y52)</f>
+        <v>8.1666666666667005E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>100000</v>
       </c>
@@ -43939,7 +45827,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>100000</v>
       </c>
@@ -43962,7 +45850,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E57">
         <f>AVERAGE(E47:E51)/2000</f>
         <v>21.917269801699998</v>
@@ -43980,12 +45868,12 @@
         <v>8.9348882830384948</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>100000</v>
       </c>
@@ -44008,7 +45896,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>100000</v>
       </c>
@@ -44031,7 +45919,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>100000</v>
       </c>
@@ -44054,7 +45942,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>100000</v>
       </c>
@@ -44077,7 +45965,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>100000</v>
       </c>
@@ -44120,7 +46008,7 @@
         <v>21.962203176599999</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>100000</v>
       </c>
@@ -46028,10 +47916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDC556B-3110-A249-BF0C-9266FDB616B9}">
-  <dimension ref="A1:W148"/>
+  <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:W20"/>
+    <sheetView topLeftCell="E26" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40:Y55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47076,7 +48964,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>AVERAGE(E23:E27)/2000</f>
         <v>21.918720887399999</v>
@@ -47094,12 +48982,12 @@
         <v>5.4124919456937253</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>100000</v>
       </c>
@@ -47122,7 +49010,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>100000</v>
       </c>
@@ -47145,7 +49033,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>100000</v>
       </c>
@@ -47168,7 +49056,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>100000</v>
       </c>
@@ -47191,7 +49079,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>100000</v>
       </c>
@@ -47233,8 +49121,11 @@
         <f>AVERAGE(E35:E44)/2000</f>
         <v>21.967750084350001</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>100000</v>
       </c>
@@ -47256,8 +49147,32 @@
       <c r="H40">
         <v>270</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s">
+        <v>72</v>
+      </c>
+      <c r="S40" t="s">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U40" t="s">
+        <v>8</v>
+      </c>
+      <c r="V40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>100000</v>
       </c>
@@ -47279,8 +49194,40 @@
       <c r="H41">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>-10202.352500000001</v>
+      </c>
+      <c r="R41">
+        <v>2000</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" ref="T41:T53" si="1">S41/SUM(R41:S41)</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f>Q41/SUM(R41:S41)</f>
+        <v>-5.1011762500000009</v>
+      </c>
+      <c r="V41">
+        <f>U41-(1-T41)*$U$41-T41*$U$53</f>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>ABS(U41-T8)</f>
+        <v>5.7499999988053219E-6</v>
+      </c>
+      <c r="Y41" t="e">
+        <f>ABS(T41*100-P41)/P41</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>100000</v>
       </c>
@@ -47302,8 +49249,40 @@
       <c r="H42">
         <v>282</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>-10266.214</v>
+      </c>
+      <c r="R42">
+        <v>1900.0650000000001</v>
+      </c>
+      <c r="S42">
+        <v>99.935000000000002</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>4.9967499999999998E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42:U53" si="2">Q42/SUM(R42:S42)</f>
+        <v>-5.1331069999999999</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42:V53" si="3">U42-(1-T42)*$U$41-T42*$U$53</f>
+        <v>1.393922762187666E-2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42:W53" si="4">ABS(U42-T9)</f>
+        <v>4.029999999994871E-4</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42:Y53" si="5">ABS(T42*100-P42)/P42</f>
+        <v>6.5000000000008389E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>100000</v>
       </c>
@@ -47325,8 +49304,40 @@
       <c r="H43">
         <v>338</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <v>-10360.522499999999</v>
+      </c>
+      <c r="R43">
+        <v>1799.6849999999999</v>
+      </c>
+      <c r="S43">
+        <v>200.315</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>0.1001575</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>-5.1802612499999992</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="3"/>
+        <v>1.2859209409376682E-2</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="4"/>
+        <v>4.4275000000126852E-4</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="5"/>
+        <v>1.574999999999882E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>100000</v>
       </c>
@@ -47348,8 +49359,40 @@
       <c r="H44">
         <v>302</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>15</v>
+      </c>
+      <c r="Q44">
+        <v>-10471.0155</v>
+      </c>
+      <c r="R44">
+        <v>1700.4849999999999</v>
+      </c>
+      <c r="S44">
+        <v>299.51499999999999</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>0.14975749999999999</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>-5.23550775</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="3"/>
+        <v>3.1453234093758997E-3</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="4"/>
+        <v>1.395750000000362E-3</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="5"/>
+        <v>1.6166666666668069E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E45">
         <f>AVERAGE(E35:E39)/2000</f>
         <v>21.967460168700004</v>
@@ -47366,13 +49409,77 @@
         <f>STDEV(D35:D44)/SQRT(COUNT(D35:D44))</f>
         <v>7.0880418752424674</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>23</v>
+      </c>
+      <c r="Q45">
+        <v>-10667.487499999999</v>
+      </c>
+      <c r="R45">
+        <v>1539.64</v>
+      </c>
+      <c r="S45">
+        <v>460.36</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>0.23018</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>-5.33374375</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="3"/>
+        <v>-2.1263123174999565E-2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="4"/>
+        <v>5.3474999999991724E-4</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="5"/>
+        <v>7.8260869565220355E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>30</v>
+      </c>
+      <c r="Q46">
+        <v>-10841.165000000001</v>
+      </c>
+      <c r="R46">
+        <v>1400.66</v>
+      </c>
+      <c r="S46">
+        <v>599.34</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>0.29966999999999999</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>-5.4205825000000001</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="3"/>
+        <v>-4.4310313762499609E-2</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="4"/>
+        <v>4.9049999999972727E-4</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000417E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>100000</v>
       </c>
@@ -47394,8 +49501,40 @@
       <c r="H47">
         <v>472</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>40</v>
+      </c>
+      <c r="Q47">
+        <v>-11086.535</v>
+      </c>
+      <c r="R47">
+        <v>1199.075</v>
+      </c>
+      <c r="S47">
+        <v>800.92499999999995</v>
+      </c>
+      <c r="T47">
+        <f>S47/SUM(R47:S47)</f>
+        <v>0.4004625</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>-5.5432674999999998</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="3"/>
+        <v>-7.4468176734374225E-2</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="4"/>
+        <v>4.029999999994871E-4</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="5"/>
+        <v>1.1562500000000143E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>100000</v>
       </c>
@@ -47417,8 +49556,40 @@
       <c r="H48">
         <v>464</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>50</v>
+      </c>
+      <c r="Q48">
+        <v>-11311.16</v>
+      </c>
+      <c r="R48">
+        <v>1001.38</v>
+      </c>
+      <c r="S48">
+        <v>998.62</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>0.49930999999999998</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>-5.6555799999999996</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="3"/>
+        <v>-9.603904241249861E-2</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="4"/>
+        <v>1.0334999999992434E-3</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="5"/>
+        <v>1.3800000000000522E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>100000</v>
       </c>
@@ -47440,8 +49611,40 @@
       <c r="H49">
         <v>455</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>60</v>
+      </c>
+      <c r="Q49">
+        <v>-11518.22</v>
+      </c>
+      <c r="R49">
+        <v>799.55</v>
+      </c>
+      <c r="S49">
+        <v>1200.45</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>0.60022500000000001</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>-5.7591099999999997</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="3"/>
+        <v>-0.1069294508437495</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="4"/>
+        <v>1.7500000000225668E-5</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="5"/>
+        <v>3.7500000000001421E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>100000</v>
       </c>
@@ -47463,8 +49666,40 @@
       <c r="H50">
         <v>444</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>70</v>
+      </c>
+      <c r="Q50">
+        <v>-11692.514999999999</v>
+      </c>
+      <c r="R50">
+        <v>598.44000000000005</v>
+      </c>
+      <c r="S50">
+        <v>1401.56</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>0.70077999999999996</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>-5.8462575000000001</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="3"/>
+        <v>-0.10176783792500022</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="4"/>
+        <v>8.049999999997226E-4</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="5"/>
+        <v>1.1142857142857564E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>100000</v>
       </c>
@@ -47506,8 +49741,40 @@
         <f>AVERAGE(E47:E56)/2000</f>
         <v>22.020211870250002</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>80</v>
+      </c>
+      <c r="Q51">
+        <v>-11836.832</v>
+      </c>
+      <c r="R51">
+        <v>399.495</v>
+      </c>
+      <c r="S51">
+        <v>1600.5050000000001</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0.80025250000000003</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>-5.9184160000000006</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="3"/>
+        <v>-8.2610955946875286E-2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="4"/>
+        <v>1.024999999996723E-4</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="5"/>
+        <v>3.1562499999999717E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>100000</v>
       </c>
@@ -47529,8 +49796,40 @@
       <c r="H52">
         <v>443</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>90</v>
+      </c>
+      <c r="Q52">
+        <v>-11951.249</v>
+      </c>
+      <c r="R52">
+        <v>199.1</v>
+      </c>
+      <c r="S52">
+        <v>1800.9</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>0.90045000000000008</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>-5.9756245000000003</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="3"/>
+        <v>-4.7838526687500327E-2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="4"/>
+        <v>1.5049999999927621E-4</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="5"/>
+        <v>5.0000000000001898E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>100000</v>
       </c>
@@ -47552,8 +49851,40 @@
       <c r="H53">
         <v>463</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>100</v>
+      </c>
+      <c r="Q53">
+        <v>-12038.344999999999</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>2000</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>-6.0191724999999998</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="4"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>100000</v>
       </c>
@@ -47576,7 +49907,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>100000</v>
       </c>
@@ -47598,8 +49929,12 @@
       <c r="H55">
         <v>475</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Y55">
+        <f>MAX(Y42:Y53)</f>
+        <v>1.6166666666668069E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>100000</v>
       </c>
@@ -47622,7 +49957,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E57">
         <f>AVERAGE(E47:E51)/2000</f>
         <v>22.024923740500004</v>
@@ -47640,12 +49975,12 @@
         <v>6.1839133185878383</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>100000</v>
       </c>
@@ -47668,7 +50003,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>100000</v>
       </c>
@@ -47691,7 +50026,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>100000</v>
       </c>
@@ -47714,7 +50049,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>100000</v>
       </c>
@@ -47737,7 +50072,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>100000</v>
       </c>
@@ -47780,7 +50115,7 @@
         <v>22.062225269749998</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>100000</v>
       </c>
@@ -49688,10 +52023,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C229E837-9AA8-D64E-8753-6964D90051C8}">
-  <dimension ref="A1:W148"/>
+  <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:W20"/>
+    <sheetView topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40:Y55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50736,7 +53071,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>AVERAGE(E23:E27)/2000</f>
         <v>22.049914947399998</v>
@@ -50754,12 +53089,12 @@
         <v>5.3720297671103943</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>100000</v>
       </c>
@@ -50782,7 +53117,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>100000</v>
       </c>
@@ -50805,7 +53140,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>100000</v>
       </c>
@@ -50828,7 +53163,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>100000</v>
       </c>
@@ -50851,7 +53186,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>100000</v>
       </c>
@@ -50893,8 +53228,11 @@
         <f>AVERAGE(E35:E44)/2000</f>
         <v>22.088968979050001</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>100000</v>
       </c>
@@ -50916,8 +53254,32 @@
       <c r="H40">
         <v>317</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s">
+        <v>72</v>
+      </c>
+      <c r="S40" t="s">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U40" t="s">
+        <v>8</v>
+      </c>
+      <c r="V40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>100000</v>
       </c>
@@ -50939,8 +53301,40 @@
       <c r="H41">
         <v>311</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>-10164.733</v>
+      </c>
+      <c r="R41">
+        <v>2000</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" ref="T41:T53" si="1">S41/SUM(R41:S41)</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f>Q41/SUM(R41:S41)</f>
+        <v>-5.0823665</v>
+      </c>
+      <c r="V41">
+        <f>U41-(1-T41)*$U$41-T41*$U$53</f>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>ABS(U41-T8)</f>
+        <v>6.2500000000298428E-5</v>
+      </c>
+      <c r="Y41" t="e">
+        <f>ABS(T41*100-P41)/P41</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>100000</v>
       </c>
@@ -50962,8 +53356,40 @@
       <c r="H42">
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>-10228.161</v>
+      </c>
+      <c r="R42">
+        <v>1900.69</v>
+      </c>
+      <c r="S42">
+        <v>99.31</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>4.9654999999999998E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42:U53" si="2">Q42/SUM(R42:S42)</f>
+        <v>-5.1140805</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42:V53" si="3">U42-(1-T42)*$U$41-T42*$U$53</f>
+        <v>1.4049723856249585E-2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42:W53" si="4">ABS(U42-T9)</f>
+        <v>7.9999999999635918E-5</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42:Y53" si="5">ABS(T42*100-P42)/P42</f>
+        <v>6.900000000000084E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>100000</v>
       </c>
@@ -50985,8 +53411,40 @@
       <c r="H43">
         <v>350</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <v>-10323.202499999999</v>
+      </c>
+      <c r="R43">
+        <v>1799.905</v>
+      </c>
+      <c r="S43">
+        <v>200.095</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>0.1000475</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>-5.1616012499999995</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="3"/>
+        <v>1.2972402603126043E-2</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="4"/>
+        <v>4.4625000000042547E-4</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="5"/>
+        <v>4.749999999999588E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>100000</v>
       </c>
@@ -51008,8 +53466,40 @@
       <c r="H44">
         <v>267</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>15</v>
+      </c>
+      <c r="Q44">
+        <v>-10437.746999999999</v>
+      </c>
+      <c r="R44">
+        <v>1698.44</v>
+      </c>
+      <c r="S44">
+        <v>301.56</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>0.15078</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>-5.2188734999999999</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="3"/>
+        <v>2.4569368250002555E-3</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="4"/>
+        <v>1.2864999999999682E-3</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="5"/>
+        <v>5.1999999999999599E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E45">
         <f>AVERAGE(E35:E39)/2000</f>
         <v>22.0860479581</v>
@@ -51026,13 +53516,77 @@
         <f>STDEV(D35:D44)/SQRT(COUNT(D35:D44))</f>
         <v>7.6147001335851483</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>23</v>
+      </c>
+      <c r="Q45">
+        <v>-10632.3935</v>
+      </c>
+      <c r="R45">
+        <v>1539.9549999999999</v>
+      </c>
+      <c r="S45">
+        <v>460.04500000000002</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>0.23002250000000002</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>-5.3161967500000005</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="3"/>
+        <v>-2.1833750740625657E-2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="4"/>
+        <v>5.4774999999995799E-4</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="5"/>
+        <v>9.7826086956679916E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>30</v>
+      </c>
+      <c r="Q46">
+        <v>-10809.861500000001</v>
+      </c>
+      <c r="R46">
+        <v>1399.135</v>
+      </c>
+      <c r="S46">
+        <v>600.86500000000001</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>0.30043249999999999</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>-5.4049307500000001</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="3"/>
+        <v>-4.5675518403125448E-2</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="4"/>
+        <v>3.057499999998825E-4</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="5"/>
+        <v>1.4416666666666818E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>100000</v>
       </c>
@@ -51054,8 +53608,40 @@
       <c r="H47">
         <v>470</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>40</v>
+      </c>
+      <c r="Q47">
+        <v>-11054.3285</v>
+      </c>
+      <c r="R47">
+        <v>1199.085</v>
+      </c>
+      <c r="S47">
+        <v>800.91499999999996</v>
+      </c>
+      <c r="T47">
+        <f>S47/SUM(R47:S47)</f>
+        <v>0.40045749999999997</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>-5.5271642500000002</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="3"/>
+        <v>-7.572260255937513E-2</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="4"/>
+        <v>5.3675000000019679E-4</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="5"/>
+        <v>1.1437499999999545E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>100000</v>
       </c>
@@ -51077,8 +53663,40 @@
       <c r="H48">
         <v>448</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>50</v>
+      </c>
+      <c r="Q48">
+        <v>-11278.8575</v>
+      </c>
+      <c r="R48">
+        <v>1001.155</v>
+      </c>
+      <c r="S48">
+        <v>998.84500000000003</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>0.49942249999999999</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>-5.6394287500000004</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="3"/>
+        <v>-9.6777618490625716E-2</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="4"/>
+        <v>9.0825000000016587E-4</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="5"/>
+        <v>1.1549999999999727E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>100000</v>
       </c>
@@ -51100,8 +53718,40 @@
       <c r="H49">
         <v>454</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>60</v>
+      </c>
+      <c r="Q49">
+        <v>-11487.976000000001</v>
+      </c>
+      <c r="R49">
+        <v>797.27499999999998</v>
+      </c>
+      <c r="S49">
+        <v>1202.7249999999999</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>0.60136249999999991</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>-5.7439879999999999</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="3"/>
+        <v>-0.10738552401562496</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="4"/>
+        <v>5.4499999999979565E-4</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="5"/>
+        <v>2.2708333333331626E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>100000</v>
       </c>
@@ -51123,8 +53773,40 @@
       <c r="H50">
         <v>454</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>70</v>
+      </c>
+      <c r="Q50">
+        <v>-11660.517</v>
+      </c>
+      <c r="R50">
+        <v>600.86500000000001</v>
+      </c>
+      <c r="S50">
+        <v>1399.135</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>0.69956750000000001</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>-5.8302585000000002</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="3"/>
+        <v>-0.10314698159687552</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="4"/>
+        <v>9.4249999999984624E-4</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="5"/>
+        <v>6.1785714285714937E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>100000</v>
       </c>
@@ -51166,8 +53848,40 @@
         <f>AVERAGE(E47:E56)/2000</f>
         <v>22.126333461449999</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>80</v>
+      </c>
+      <c r="Q51">
+        <v>-11806.458500000001</v>
+      </c>
+      <c r="R51">
+        <v>399.83</v>
+      </c>
+      <c r="S51">
+        <v>1600.17</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0.80008500000000005</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>-5.9032292500000008</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="3"/>
+        <v>-8.3477411131250179E-2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="4"/>
+        <v>6.23249999999409E-4</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="5"/>
+        <v>1.0624999999997442E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>100000</v>
       </c>
@@ -51189,8 +53903,40 @@
       <c r="H52">
         <v>429</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>90</v>
+      </c>
+      <c r="Q52">
+        <v>-11920.165499999999</v>
+      </c>
+      <c r="R52">
+        <v>200.02</v>
+      </c>
+      <c r="S52">
+        <v>1799.98</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>0.89998999999999996</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>-5.9600827499999998</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="3"/>
+        <v>-4.8255091337500389E-2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="4"/>
+        <v>5.097499999999755E-4</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="5"/>
+        <v>1.1111111111164165E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>100000</v>
       </c>
@@ -51212,8 +53958,40 @@
       <c r="H53">
         <v>474</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>100</v>
+      </c>
+      <c r="Q53">
+        <v>-12008.0005</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>2000</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>-6.0040002499999998</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="4"/>
+        <v>1.5249999999689123E-5</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>100000</v>
       </c>
@@ -51236,7 +54014,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>100000</v>
       </c>
@@ -51258,8 +54036,12 @@
       <c r="H55">
         <v>499</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Y55">
+        <f>MAX(Y42:Y53)</f>
+        <v>6.900000000000084E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>100000</v>
       </c>
@@ -51282,7 +54064,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E57">
         <f>AVERAGE(E47:E51)/2000</f>
         <v>22.124826922899995</v>
@@ -51300,12 +54082,12 @@
         <v>6.8057280268448572</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>100000</v>
       </c>
@@ -51328,7 +54110,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>100000</v>
       </c>
@@ -51351,7 +54133,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>100000</v>
       </c>
@@ -51374,7 +54156,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>100000</v>
       </c>
@@ -51397,7 +54179,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>100000</v>
       </c>
@@ -51440,7 +54222,7 @@
         <v>22.162156019349997</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>100000</v>
       </c>
@@ -53350,8 +56132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E3F6FE-7E4E-2545-9463-2DCFF2E07CF1}">
   <dimension ref="A2:AD121"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56192,8 +58974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8E1C74-98EA-F24C-8D87-723252A8583D}">
   <dimension ref="B2:BG149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BC14" sqref="BC14"/>
+    <sheetView tabSelected="1" topLeftCell="N31" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59239,7 +62021,7 @@
       </c>
       <c r="AC37">
         <f>AC39/Y39</f>
-        <v>1.1443789366873955</v>
+        <v>1.1418307026412893</v>
       </c>
     </row>
     <row r="38" spans="5:33" x14ac:dyDescent="0.2">
@@ -59330,96 +62112,96 @@
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>-5.1656164999999996</v>
+        <v>-5.1656167499999999</v>
       </c>
       <c r="G39">
-        <v>-5.1507509999999996</v>
+        <v>-5.1507489999999994</v>
       </c>
       <c r="H39">
-        <v>-5.1351149999999999</v>
+        <v>-5.1351225000000005</v>
       </c>
       <c r="I39">
-        <v>-5.1186870000000004</v>
+        <v>-5.1186600000000002</v>
       </c>
       <c r="J39">
-        <v>-5.1011819999999997</v>
+        <v>-5.1011762500000009</v>
       </c>
       <c r="K39">
-        <v>-5.0823039999999997</v>
+        <v>-5.0823665</v>
       </c>
       <c r="L39">
         <f t="shared" ref="L39:Q39" si="32">F39+(L$38*(8.6173*10^-5))*1.5</f>
-        <v>-5.0492829499999994</v>
+        <v>-5.0492831999999996</v>
       </c>
       <c r="M39">
         <f t="shared" si="32"/>
-        <v>-5.0214914999999998</v>
+        <v>-5.0214894999999995</v>
       </c>
       <c r="N39">
         <f t="shared" si="32"/>
-        <v>-4.9929295499999995</v>
+        <v>-4.9929370500000001</v>
       </c>
       <c r="O39">
         <f t="shared" si="32"/>
-        <v>-4.9635756000000004</v>
+        <v>-4.9635486000000002</v>
       </c>
       <c r="P39">
         <f t="shared" si="32"/>
-        <v>-4.93314465</v>
+        <v>-4.9331389000000012</v>
       </c>
       <c r="Q39">
         <f t="shared" si="32"/>
-        <v>-4.9013406999999996</v>
+        <v>-4.9014031999999998</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
         <f>(M39-L39)/(M$38-L$38)</f>
-        <v>2.7791449999999609E-4</v>
+        <v>2.7793700000000143E-4</v>
       </c>
       <c r="T39">
         <f>(N39-M39)/(N$38-M$38)</f>
-        <v>2.856195000000028E-4</v>
+        <v>2.8552449999999399E-4</v>
       </c>
       <c r="U39">
         <f>(O39-N39)/(O$38-N$38)</f>
-        <v>2.9353949999999073E-4</v>
+        <v>2.9388449999999899E-4</v>
       </c>
       <c r="V39">
         <f>(P39-O39)/(P$38-O$38)</f>
-        <v>3.0430950000000402E-4</v>
+        <v>3.0409699999998983E-4</v>
       </c>
       <c r="W39">
         <f>(Q39-P39)/(Q$38-P$38)</f>
-        <v>3.1803950000000472E-4</v>
+        <v>3.1735700000001365E-4</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
         <f t="shared" ref="Y39:Z51" si="33">S39*(1.602*10^-19)*(6.022*10^23)</f>
-        <v>26.811089926379619</v>
+        <v>26.813260556280134</v>
       </c>
       <c r="Z39">
         <f t="shared" si="33"/>
-        <v>27.554410076580268</v>
+        <v>27.545245194779415</v>
       </c>
       <c r="AA39">
         <f t="shared" ref="AA39:AA51" si="34">U39*(1.602*10^-19)*(6.022*10^23)</f>
-        <v>28.318471801379104</v>
+        <v>28.3517547931799</v>
       </c>
       <c r="AB39">
         <f t="shared" ref="AB39:AB51" si="35">V39*(1.602*10^-19)*(6.022*10^23)</f>
-        <v>29.357479980180386</v>
+        <v>29.336979586679014</v>
       </c>
       <c r="AC39">
         <f t="shared" ref="AC39:AC51" si="36">W39*(1.602*10^-19)*(6.022*10^23)</f>
-        <v>30.682046581380451</v>
+        <v>30.616204141081315</v>
       </c>
       <c r="AE39">
         <f>AVERAGE(Y39:AC39)</f>
-        <v>28.54469967317997</v>
+        <v>28.532688854399954</v>
       </c>
     </row>
     <row r="40" spans="5:33" x14ac:dyDescent="0.2">
@@ -59427,96 +62209,96 @@
         <v>0.05</v>
       </c>
       <c r="F40" s="7">
-        <v>-5.1978200000000001</v>
+        <v>-5.1978374999999994</v>
       </c>
       <c r="G40">
-        <v>-5.1831135000000002</v>
+        <v>-5.18316775</v>
       </c>
       <c r="H40">
-        <v>-5.1675095000000004</v>
+        <v>-5.1670204999999996</v>
       </c>
       <c r="I40">
-        <v>-5.1502569999999999</v>
+        <v>-5.1508935000000005</v>
       </c>
       <c r="J40">
-        <v>-5.1327040000000004</v>
+        <v>-5.1331069999999999</v>
       </c>
       <c r="K40">
-        <v>-5.1140005000000004</v>
+        <v>-5.1140805</v>
       </c>
       <c r="L40">
         <f t="shared" ref="L40:L51" si="37">F40+(L$38*(8.6173*10^-5))*1.5</f>
-        <v>-5.0814864499999999</v>
+        <v>-5.0815039499999992</v>
       </c>
       <c r="M40">
         <f t="shared" ref="M40:M51" si="38">G40+(M$38*(8.6173*10^-5))*1.5</f>
-        <v>-5.0538540000000003</v>
+        <v>-5.0539082500000001</v>
       </c>
       <c r="N40">
         <f t="shared" ref="N40:N51" si="39">H40+(N$38*(8.6173*10^-5))*1.5</f>
-        <v>-5.02532405</v>
+        <v>-5.0248350499999992</v>
       </c>
       <c r="O40">
         <f t="shared" ref="O40:O51" si="40">I40+(O$38*(8.6173*10^-5))*1.5</f>
-        <v>-4.9951455999999999</v>
+        <v>-4.9957821000000004</v>
       </c>
       <c r="P40">
         <f t="shared" ref="P40:P51" si="41">J40+(P$38*(8.6173*10^-5))*1.5</f>
-        <v>-4.9646666500000007</v>
+        <v>-4.9650696500000002</v>
       </c>
       <c r="Q40">
         <f t="shared" ref="Q40:Q51" si="42">K40+(Q$38*(8.6173*10^-5))*1.5</f>
-        <v>-4.9330372000000002</v>
+        <v>-4.9331171999999999</v>
       </c>
       <c r="R40">
         <v>0.05</v>
       </c>
       <c r="S40">
         <f t="shared" ref="S40:S50" si="43">(M40-L40)/(M$38-L$38)</f>
-        <v>2.7632449999999588E-4</v>
+        <v>2.7595699999999112E-4</v>
       </c>
       <c r="T40">
         <f t="shared" ref="T40:T50" si="44">(N40-M40)/(N$38-M$38)</f>
-        <v>2.8529950000000248E-4</v>
+        <v>2.9073200000000909E-4</v>
       </c>
       <c r="U40">
         <f t="shared" ref="U40:U51" si="45">(O40-N40)/(O$38-N$38)</f>
-        <v>3.0178450000000189E-4</v>
+        <v>2.9052949999998747E-4</v>
       </c>
       <c r="V40">
         <f t="shared" ref="V40:V51" si="46">(P40-O40)/(P$38-O$38)</f>
-        <v>3.0478949999999114E-4</v>
+        <v>3.0712450000000227E-4</v>
       </c>
       <c r="W40">
         <f t="shared" ref="W40:W51" si="47">(Q40-P40)/(Q$38-P$38)</f>
-        <v>3.1629450000000505E-4</v>
+        <v>3.1952450000000354E-4</v>
       </c>
       <c r="X40">
         <v>0.05</v>
       </c>
       <c r="Y40">
         <f t="shared" si="33"/>
-        <v>26.657698746779602</v>
+        <v>26.622245125079139</v>
       </c>
       <c r="Z40">
         <f t="shared" si="33"/>
-        <v>27.523538895780238</v>
+        <v>28.047625426080874</v>
       </c>
       <c r="AA40">
         <f t="shared" si="34"/>
-        <v>29.11388706918018</v>
+        <v>28.028089756978787</v>
       </c>
       <c r="AB40">
         <f t="shared" si="35"/>
-        <v>29.40378675137914</v>
+        <v>29.629049898780217</v>
       </c>
       <c r="AC40">
         <f t="shared" si="36"/>
-        <v>30.513702173580487</v>
+        <v>30.825308154780341</v>
       </c>
       <c r="AE40">
         <f t="shared" ref="AE40:AE51" si="48">AVERAGE(Y40:AC40)</f>
-        <v>28.64252272733993</v>
+        <v>28.630463672339875</v>
       </c>
     </row>
     <row r="41" spans="5:33" x14ac:dyDescent="0.2">
@@ -59524,96 +62306,96 @@
         <v>0.1</v>
       </c>
       <c r="F41" s="7">
-        <v>-5.2455534999999998</v>
+        <v>-5.2449477500000006</v>
       </c>
       <c r="G41">
-        <v>-5.2296740000000002</v>
+        <v>-5.2294745000000002</v>
       </c>
       <c r="H41">
-        <v>-5.2132959999999997</v>
+        <v>-5.2135427499999993</v>
       </c>
       <c r="I41">
-        <v>-5.1964984999999997</v>
+        <v>-5.1970587500000001</v>
       </c>
       <c r="J41">
-        <v>-5.1807040000000004</v>
+        <v>-5.1802612499999992</v>
       </c>
       <c r="K41">
-        <v>-5.1620474999999999</v>
+        <v>-5.1616012499999995</v>
       </c>
       <c r="L41">
         <f t="shared" si="37"/>
-        <v>-5.1292199499999995</v>
+        <v>-5.1286142000000003</v>
       </c>
       <c r="M41">
         <f t="shared" si="38"/>
-        <v>-5.1004145000000003</v>
+        <v>-5.1002150000000004</v>
       </c>
       <c r="N41">
         <f t="shared" si="39"/>
-        <v>-5.0711105499999993</v>
+        <v>-5.071357299999999</v>
       </c>
       <c r="O41">
         <f t="shared" si="40"/>
-        <v>-5.0413870999999997</v>
+        <v>-5.04194735</v>
       </c>
       <c r="P41">
         <f t="shared" si="41"/>
-        <v>-5.0126666500000008</v>
+        <v>-5.0122238999999995</v>
       </c>
       <c r="Q41">
         <f t="shared" si="42"/>
-        <v>-4.9810841999999997</v>
+        <v>-4.9806379499999993</v>
       </c>
       <c r="R41">
         <v>0.1</v>
       </c>
       <c r="S41">
         <f t="shared" si="43"/>
-        <v>2.8805449999999235E-4</v>
+        <v>2.8399199999999957E-4</v>
       </c>
       <c r="T41">
         <f t="shared" si="44"/>
-        <v>2.9303950000000964E-4</v>
+        <v>2.885770000000143E-4</v>
       </c>
       <c r="U41">
         <f t="shared" si="45"/>
-        <v>2.9723449999999649E-4</v>
+        <v>2.9409949999998909E-4</v>
       </c>
       <c r="V41">
         <f t="shared" si="46"/>
-        <v>2.87204499999989E-4</v>
+        <v>2.9723450000000538E-4</v>
       </c>
       <c r="W41">
         <f t="shared" si="47"/>
-        <v>3.1582450000001039E-4</v>
+        <v>3.1585950000000195E-4</v>
       </c>
       <c r="X41">
         <v>0.1</v>
       </c>
       <c r="Y41">
         <f t="shared" si="33"/>
-        <v>27.789320467979262</v>
+        <v>27.397401180479957</v>
       </c>
       <c r="Z41">
         <f t="shared" si="33"/>
-        <v>28.270235581380927</v>
+        <v>27.83972731788138</v>
       </c>
       <c r="AA41">
         <f t="shared" si="34"/>
-        <v>28.67493746717966</v>
+        <v>28.372496367778943</v>
       </c>
       <c r="AB41">
         <f t="shared" si="35"/>
-        <v>27.707318893978936</v>
+        <v>28.674937467180516</v>
       </c>
       <c r="AC41">
         <f t="shared" si="36"/>
-        <v>30.468360126781</v>
+        <v>30.471736662180184</v>
       </c>
       <c r="AE41">
         <f t="shared" si="48"/>
-        <v>28.582034507459959</v>
+        <v>28.551259799100194</v>
       </c>
     </row>
     <row r="42" spans="5:33" x14ac:dyDescent="0.2">
@@ -59621,96 +62403,96 @@
         <v>0.15</v>
       </c>
       <c r="F42" s="7">
-        <v>-5.3014935000000003</v>
+        <v>-5.300567</v>
       </c>
       <c r="G42">
-        <v>-5.2847489999999997</v>
+        <v>-5.2846225000000002</v>
       </c>
       <c r="H42">
-        <v>-5.2677630000000004</v>
+        <v>-5.2687854999999999</v>
       </c>
       <c r="I42">
-        <v>-5.2557270000000003</v>
+        <v>-5.2544060000000004</v>
       </c>
       <c r="J42">
-        <v>-5.2341119999999997</v>
+        <v>-5.23550775</v>
       </c>
       <c r="K42">
-        <v>-5.217587</v>
+        <v>-5.2188734999999999</v>
       </c>
       <c r="L42">
         <f t="shared" si="37"/>
-        <v>-5.1851599500000001</v>
+        <v>-5.1842334499999998</v>
       </c>
       <c r="M42">
         <f t="shared" si="38"/>
-        <v>-5.1554894999999998</v>
+        <v>-5.1553630000000004</v>
       </c>
       <c r="N42">
         <f t="shared" si="39"/>
-        <v>-5.12557755</v>
+        <v>-5.1266000499999995</v>
       </c>
       <c r="O42">
         <f t="shared" si="40"/>
-        <v>-5.1006156000000002</v>
+        <v>-5.0992946000000003</v>
       </c>
       <c r="P42">
         <f t="shared" si="41"/>
-        <v>-5.06607465</v>
+        <v>-5.0674704000000004</v>
       </c>
       <c r="Q42">
         <f t="shared" si="42"/>
-        <v>-5.0366236999999998</v>
+        <v>-5.0379101999999998</v>
       </c>
       <c r="R42">
         <v>0.15</v>
       </c>
       <c r="S42">
         <f t="shared" si="43"/>
-        <v>2.9670450000000235E-4</v>
+        <v>2.8870449999999435E-4</v>
       </c>
       <c r="T42">
         <f t="shared" si="44"/>
-        <v>2.9911949999999798E-4</v>
+        <v>2.8762950000000843E-4</v>
       </c>
       <c r="U42">
         <f t="shared" si="45"/>
-        <v>2.4961949999999786E-4</v>
+        <v>2.7305449999999177E-4</v>
       </c>
       <c r="V42">
         <f t="shared" si="46"/>
-        <v>3.4540950000000237E-4</v>
+        <v>3.1824199999999967E-4</v>
       </c>
       <c r="W42">
         <f t="shared" si="47"/>
-        <v>2.94509500000002E-4</v>
+        <v>2.9560200000000592E-4</v>
       </c>
       <c r="X42">
         <v>0.15</v>
       </c>
       <c r="Y42">
         <f t="shared" si="33"/>
-        <v>28.623807073980224</v>
+        <v>27.852027553979454</v>
       </c>
       <c r="Z42">
         <f t="shared" si="33"/>
-        <v>28.856788016579802</v>
+        <v>27.74831968098081</v>
       </c>
       <c r="AA42">
         <f t="shared" si="34"/>
-        <v>24.081402236579795</v>
+        <v>26.342233867979203</v>
       </c>
       <c r="AB42">
         <f t="shared" si="35"/>
-        <v>33.322497264180228</v>
+        <v>30.701582250479966</v>
       </c>
       <c r="AC42">
         <f t="shared" si="36"/>
-        <v>28.412050068180193</v>
+        <v>28.517446208880571</v>
       </c>
       <c r="AE42">
         <f t="shared" si="48"/>
-        <v>28.659308931900046</v>
+        <v>28.232321912459998</v>
       </c>
     </row>
     <row r="43" spans="5:33" x14ac:dyDescent="0.2">
@@ -59718,96 +62500,96 @@
         <v>0.23</v>
       </c>
       <c r="F43" s="7">
-        <v>-5.3956474999999999</v>
+        <v>-5.3961385000000002</v>
       </c>
       <c r="G43">
-        <v>-5.3810979999999997</v>
+        <v>-5.3803665000000001</v>
       </c>
       <c r="H43">
-        <v>-5.3645275000000003</v>
+        <v>-5.3660609999999993</v>
       </c>
       <c r="I43">
-        <v>-5.3512085000000003</v>
+        <v>-5.3491642499999994</v>
       </c>
       <c r="J43">
-        <v>-5.3332090000000001</v>
+        <v>-5.33374375</v>
       </c>
       <c r="K43">
-        <v>-5.3167445000000004</v>
+        <v>-5.3161967500000005</v>
       </c>
       <c r="L43">
         <f t="shared" si="37"/>
-        <v>-5.2793139499999997</v>
+        <v>-5.2798049499999999</v>
       </c>
       <c r="M43">
         <f t="shared" si="38"/>
-        <v>-5.2518384999999999</v>
+        <v>-5.2511070000000002</v>
       </c>
       <c r="N43">
         <f t="shared" si="39"/>
-        <v>-5.22234205</v>
+        <v>-5.2238755499999989</v>
       </c>
       <c r="O43">
         <f t="shared" si="40"/>
-        <v>-5.1960971000000002</v>
+        <v>-5.1940528499999994</v>
       </c>
       <c r="P43">
         <f t="shared" si="41"/>
-        <v>-5.1651716500000004</v>
+        <v>-5.1657064000000004</v>
       </c>
       <c r="Q43">
         <f t="shared" si="42"/>
-        <v>-5.1357812000000003</v>
+        <v>-5.1352334500000003</v>
       </c>
       <c r="R43">
         <v>0.23</v>
       </c>
       <c r="S43">
         <f t="shared" si="43"/>
-        <v>2.7475449999999848E-4</v>
+        <v>2.8697949999999749E-4</v>
       </c>
       <c r="T43">
         <f t="shared" si="44"/>
-        <v>2.9496449999999897E-4</v>
+        <v>2.7231450000001265E-4</v>
       </c>
       <c r="U43">
         <f t="shared" si="45"/>
-        <v>2.6244949999999713E-4</v>
+        <v>2.9822699999999537E-4</v>
       </c>
       <c r="V43">
         <f t="shared" si="46"/>
-        <v>3.0925449999999797E-4</v>
+        <v>2.8346449999999023E-4</v>
       </c>
       <c r="W43">
         <f t="shared" si="47"/>
-        <v>2.9390450000000179E-4</v>
+        <v>3.0472950000000055E-4</v>
       </c>
       <c r="X43">
         <v>0.23</v>
       </c>
       <c r="Y43">
         <f t="shared" si="33"/>
-        <v>26.506237015979849</v>
+        <v>27.685612594979755</v>
       </c>
       <c r="Z43">
         <f t="shared" si="33"/>
-        <v>28.455945028379897</v>
+        <v>26.270844262381221</v>
       </c>
       <c r="AA43">
         <f t="shared" si="34"/>
-        <v>25.319143641779718</v>
+        <v>28.770686363879552</v>
       </c>
       <c r="AB43">
         <f t="shared" si="35"/>
-        <v>29.834536195979801</v>
+        <v>27.346511968379058</v>
       </c>
       <c r="AC43">
         <f t="shared" si="36"/>
-        <v>28.353684241980172</v>
+        <v>29.397998404980051</v>
       </c>
       <c r="AE43">
         <f t="shared" si="48"/>
-        <v>27.69390922481989</v>
+        <v>27.894330718919928</v>
       </c>
     </row>
     <row r="44" spans="5:33" x14ac:dyDescent="0.2">
@@ -59815,96 +62597,96 @@
         <v>0.3</v>
       </c>
       <c r="F44" s="7">
-        <v>-5.4838420000000001</v>
+        <v>-5.4842719999999998</v>
       </c>
       <c r="G44">
-        <v>-5.4686060000000003</v>
+        <v>-5.4681042500000006</v>
       </c>
       <c r="H44">
-        <v>-5.4547274999999997</v>
+        <v>-5.4529550000000002</v>
       </c>
       <c r="I44">
-        <v>-5.4377639999999996</v>
+        <v>-5.4373627500000001</v>
       </c>
       <c r="J44">
-        <v>-5.4200920000000004</v>
+        <v>-5.4205825000000001</v>
       </c>
       <c r="K44">
-        <v>-5.4046250000000002</v>
+        <v>-5.4049307500000001</v>
       </c>
       <c r="L44">
         <f t="shared" si="37"/>
-        <v>-5.3675084499999999</v>
+        <v>-5.3679384499999996</v>
       </c>
       <c r="M44">
         <f t="shared" si="38"/>
-        <v>-5.3393465000000004</v>
+        <v>-5.3388447500000007</v>
       </c>
       <c r="N44">
         <f t="shared" si="39"/>
-        <v>-5.3125420499999993</v>
+        <v>-5.3107695499999998</v>
       </c>
       <c r="O44">
         <f t="shared" si="40"/>
-        <v>-5.2826525999999996</v>
+        <v>-5.2822513500000001</v>
       </c>
       <c r="P44">
         <f t="shared" si="41"/>
-        <v>-5.2520546500000007</v>
+        <v>-5.2525451500000004</v>
       </c>
       <c r="Q44">
         <f t="shared" si="42"/>
-        <v>-5.2236617000000001</v>
+        <v>-5.22396745</v>
       </c>
       <c r="R44">
         <v>0.3</v>
       </c>
       <c r="S44">
         <f t="shared" si="43"/>
-        <v>2.8161949999999436E-4</v>
+        <v>2.909369999999889E-4</v>
       </c>
       <c r="T44">
         <f t="shared" si="44"/>
-        <v>2.680445000000109E-4</v>
+        <v>2.8075200000000856E-4</v>
       </c>
       <c r="U44">
         <f t="shared" si="45"/>
-        <v>2.9889449999999764E-4</v>
+        <v>2.8518199999999716E-4</v>
       </c>
       <c r="V44">
         <f t="shared" si="46"/>
-        <v>3.0597949999998874E-4</v>
+        <v>2.9706199999999681E-4</v>
       </c>
       <c r="W44">
         <f t="shared" si="47"/>
-        <v>2.8392950000000639E-4</v>
+        <v>2.8577700000000485E-4</v>
       </c>
       <c r="X44">
         <v>0.3</v>
       </c>
       <c r="Y44">
         <f t="shared" si="33"/>
-        <v>27.168520316579453</v>
+        <v>28.067402276278926</v>
       </c>
       <c r="Z44">
         <f t="shared" si="33"/>
-        <v>25.858906943581047</v>
+        <v>27.084830474880825</v>
       </c>
       <c r="AA44">
         <f t="shared" si="34"/>
-        <v>28.835081717579769</v>
+        <v>27.512203384079722</v>
       </c>
       <c r="AB44">
         <f t="shared" si="35"/>
-        <v>29.518588954978913</v>
+        <v>28.658295971279692</v>
       </c>
       <c r="AC44">
         <f t="shared" si="36"/>
-        <v>27.391371652980617</v>
+        <v>27.569604485880465</v>
       </c>
       <c r="AE44">
         <f t="shared" si="48"/>
-        <v>27.754493917139961</v>
+        <v>27.778467318479926</v>
       </c>
     </row>
     <row r="45" spans="5:33" x14ac:dyDescent="0.2">
@@ -59912,96 +62694,96 @@
         <v>0.4</v>
       </c>
       <c r="F45" s="7">
-        <v>-5.6055570000000001</v>
+        <v>-5.6038494999999999</v>
       </c>
       <c r="G45">
-        <v>-5.5881790000000002</v>
+        <v>-5.5884847499999992</v>
       </c>
       <c r="H45">
-        <v>-5.5718354999999997</v>
+        <v>-5.5721322499999992</v>
       </c>
       <c r="I45">
-        <v>-5.5597139999999996</v>
+        <v>-5.5601029999999998</v>
       </c>
       <c r="J45">
-        <v>-5.5428645000000003</v>
+        <v>-5.5432674999999998</v>
       </c>
       <c r="K45">
-        <v>-5.5277010000000004</v>
+        <v>-5.5271642500000002</v>
       </c>
       <c r="L45">
         <f t="shared" si="37"/>
-        <v>-5.4892234499999999</v>
+        <v>-5.4875159499999997</v>
       </c>
       <c r="M45">
         <f t="shared" si="38"/>
-        <v>-5.4589195000000004</v>
+        <v>-5.4592252499999994</v>
       </c>
       <c r="N45">
         <f t="shared" si="39"/>
-        <v>-5.4296500499999993</v>
+        <v>-5.4299467999999989</v>
       </c>
       <c r="O45">
         <f t="shared" si="40"/>
-        <v>-5.4046025999999996</v>
+        <v>-5.4049915999999998</v>
       </c>
       <c r="P45">
         <f t="shared" si="41"/>
-        <v>-5.3748271500000007</v>
+        <v>-5.3752301500000002</v>
       </c>
       <c r="Q45">
         <f t="shared" si="42"/>
-        <v>-5.3467377000000003</v>
+        <v>-5.3462009500000001</v>
       </c>
       <c r="R45">
         <v>0.4</v>
       </c>
       <c r="S45">
         <f t="shared" si="43"/>
-        <v>3.0303949999999525E-4</v>
+        <v>2.8290700000000335E-4</v>
       </c>
       <c r="T45">
         <f t="shared" si="44"/>
-        <v>2.9269450000001028E-4</v>
+        <v>2.9278450000000508E-4</v>
       </c>
       <c r="U45">
-        <f t="shared" si="45"/>
-        <v>2.504744999999975E-4</v>
+        <f>(O45-N45)/(O$38-N$38)</f>
+        <v>2.4955199999999067E-4</v>
       </c>
       <c r="V45">
         <f t="shared" si="46"/>
-        <v>2.9775449999998928E-4</v>
+        <v>2.9761449999999635E-4</v>
       </c>
       <c r="W45">
         <f t="shared" si="47"/>
-        <v>2.8089450000000403E-4</v>
+        <v>2.9029200000000086E-4</v>
       </c>
       <c r="X45">
         <v>0.4</v>
       </c>
       <c r="Y45">
         <f t="shared" si="33"/>
-        <v>29.234959981379539</v>
+        <v>27.292728583080322</v>
       </c>
       <c r="Z45">
         <f t="shared" si="33"/>
-        <v>28.236952589580991</v>
+        <v>28.245635109180487</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="34"/>
-        <v>24.163886172779758</v>
+        <f>U45*(1.602*10^-19)*(6.022*10^23)</f>
+        <v>24.074890346879098</v>
       </c>
       <c r="AB45">
         <f t="shared" si="35"/>
-        <v>28.725103135978966</v>
+        <v>28.711596994379647</v>
       </c>
       <c r="AC45">
         <f t="shared" si="36"/>
-        <v>27.098577797580386</v>
+        <v>28.005177552480081</v>
       </c>
       <c r="AE45">
         <f t="shared" si="48"/>
-        <v>27.491895935459929</v>
+        <v>27.266005717199924</v>
       </c>
     </row>
     <row r="46" spans="5:33" x14ac:dyDescent="0.2">
@@ -60009,96 +62791,96 @@
         <v>0.5</v>
       </c>
       <c r="F46" s="7">
-        <v>-5.7140234999999997</v>
+        <v>-5.7151932500000004</v>
       </c>
       <c r="G46">
-        <v>-5.7038824999999997</v>
+        <v>-5.7030665000000003</v>
       </c>
       <c r="H46">
-        <v>-5.6853410000000002</v>
+        <v>-5.6858052500000005</v>
       </c>
       <c r="I46">
-        <v>-5.6700549999999996</v>
+        <v>-5.6712502499999999</v>
       </c>
       <c r="J46">
-        <v>-5.6545465000000004</v>
+        <v>-5.6555799999999996</v>
       </c>
       <c r="K46">
-        <v>-5.6385205000000003</v>
+        <v>-5.6394287500000004</v>
       </c>
       <c r="L46">
         <f t="shared" si="37"/>
-        <v>-5.5976899499999995</v>
+        <v>-5.5988597000000002</v>
       </c>
       <c r="M46">
         <f t="shared" si="38"/>
-        <v>-5.5746229999999999</v>
+        <v>-5.5738070000000004</v>
       </c>
       <c r="N46">
         <f t="shared" si="39"/>
-        <v>-5.5431555499999998</v>
+        <v>-5.5436198000000001</v>
       </c>
       <c r="O46">
         <f t="shared" si="40"/>
-        <v>-5.5149435999999996</v>
+        <v>-5.5161388499999999</v>
       </c>
       <c r="P46">
         <f t="shared" si="41"/>
-        <v>-5.4865091500000007</v>
+        <v>-5.48754265</v>
       </c>
       <c r="Q46">
         <f t="shared" si="42"/>
-        <v>-5.4575572000000001</v>
+        <v>-5.4584654500000003</v>
       </c>
       <c r="R46">
         <v>0.5</v>
       </c>
       <c r="S46">
         <f t="shared" si="43"/>
-        <v>2.3066949999999586E-4</v>
+        <v>2.5052699999999817E-4</v>
       </c>
       <c r="T46">
         <f t="shared" si="44"/>
-        <v>3.1467450000000063E-4</v>
+        <v>3.0187200000000305E-4</v>
       </c>
       <c r="U46">
         <f t="shared" si="45"/>
-        <v>2.8211950000000207E-4</v>
+        <v>2.7480950000000168E-4</v>
       </c>
       <c r="V46">
         <f t="shared" si="46"/>
-        <v>2.8434449999998891E-4</v>
+        <v>2.8596199999999963E-4</v>
       </c>
       <c r="W46">
         <f t="shared" si="47"/>
-        <v>2.8951950000000615E-4</v>
+        <v>2.9077199999999692E-4</v>
       </c>
       <c r="X46">
         <v>0.5</v>
       </c>
       <c r="Y46">
         <f t="shared" si="33"/>
-        <v>22.253249498579599</v>
+        <v>24.16895097587982</v>
       </c>
       <c r="Z46">
         <f t="shared" si="33"/>
-        <v>30.35741682078006</v>
+        <v>29.122328407680293</v>
       </c>
       <c r="AA46">
         <f t="shared" si="34"/>
-        <v>27.216756536580196</v>
+        <v>26.511543000180161</v>
       </c>
       <c r="AB46">
         <f t="shared" si="35"/>
-        <v>27.431407715578928</v>
+        <v>27.587451887279965</v>
       </c>
       <c r="AC46">
         <f t="shared" si="36"/>
-        <v>27.930652592580593</v>
+        <v>28.051484323679702</v>
       </c>
       <c r="AE46">
         <f t="shared" si="48"/>
-        <v>27.037896632819876</v>
+        <v>27.088351718939986</v>
       </c>
     </row>
     <row r="47" spans="5:33" x14ac:dyDescent="0.2">
@@ -60106,96 +62888,96 @@
         <v>0.6</v>
       </c>
       <c r="F47" s="7">
-        <v>-5.8171875000000002</v>
+        <v>-5.8177374999999998</v>
       </c>
       <c r="G47">
-        <v>-5.8025085000000001</v>
+        <v>-5.80375525</v>
       </c>
       <c r="H47">
-        <v>-5.7897135000000004</v>
+        <v>-5.7902385000000001</v>
       </c>
       <c r="I47">
-        <v>-5.771369</v>
+        <v>-5.7720945000000006</v>
       </c>
       <c r="J47">
-        <v>-5.7591275</v>
+        <v>-5.7591099999999997</v>
       </c>
       <c r="K47">
-        <v>-5.7434430000000001</v>
+        <v>-5.7439879999999999</v>
       </c>
       <c r="L47">
         <f t="shared" si="37"/>
-        <v>-5.7008539499999999</v>
+        <v>-5.7014039499999996</v>
       </c>
       <c r="M47">
         <f t="shared" si="38"/>
-        <v>-5.6732490000000002</v>
+        <v>-5.6744957500000002</v>
       </c>
       <c r="N47">
         <f t="shared" si="39"/>
-        <v>-5.64752805</v>
+        <v>-5.6480530499999997</v>
       </c>
       <c r="O47">
         <f t="shared" si="40"/>
-        <v>-5.6162576</v>
+        <v>-5.6169831000000006</v>
       </c>
       <c r="P47">
         <f t="shared" si="41"/>
-        <v>-5.5910901500000003</v>
+        <v>-5.5910726500000001</v>
       </c>
       <c r="Q47">
         <f t="shared" si="42"/>
-        <v>-5.5624796999999999</v>
+        <v>-5.5630246999999997</v>
       </c>
       <c r="R47">
         <v>0.6</v>
       </c>
       <c r="S47">
         <f t="shared" si="43"/>
-        <v>2.7604949999999741E-4</v>
+        <v>2.6908199999999384E-4</v>
       </c>
       <c r="T47">
         <f t="shared" si="44"/>
-        <v>2.5720950000000185E-4</v>
+        <v>2.6442700000000485E-4</v>
       </c>
       <c r="U47">
         <f t="shared" si="45"/>
-        <v>3.1270450000000062E-4</v>
+        <v>3.1069949999999123E-4</v>
       </c>
       <c r="V47">
         <f t="shared" si="46"/>
-        <v>2.5167449999999645E-4</v>
+        <v>2.5910450000000474E-4</v>
       </c>
       <c r="W47">
         <f t="shared" si="47"/>
-        <v>2.8610450000000399E-4</v>
+        <v>2.8047950000000378E-4</v>
       </c>
       <c r="X47">
         <v>0.6</v>
       </c>
       <c r="Y47">
         <f t="shared" si="33"/>
-        <v>26.631168825779749</v>
+        <v>25.958997100079404</v>
       </c>
       <c r="Z47">
         <f t="shared" si="33"/>
-        <v>24.813628056180175</v>
+        <v>25.509917891880466</v>
       </c>
       <c r="AA47">
         <f t="shared" si="34"/>
-        <v>30.167366113980059</v>
+        <v>29.973938871779154</v>
       </c>
       <c r="AB47">
         <f t="shared" si="35"/>
-        <v>24.279653100779658</v>
+        <v>24.996443329980455</v>
       </c>
       <c r="AC47">
         <f t="shared" si="36"/>
-        <v>27.601199209980383</v>
+        <v>27.058541734980363</v>
       </c>
       <c r="AE47">
         <f t="shared" si="48"/>
-        <v>26.698603061340002</v>
+        <v>26.699567785739969</v>
       </c>
     </row>
     <row r="48" spans="5:33" x14ac:dyDescent="0.2">
@@ -60203,96 +62985,96 @@
         <v>0.7</v>
       </c>
       <c r="F48" s="7">
-        <v>-5.9052334999999996</v>
+        <v>-5.9040627500000005</v>
       </c>
       <c r="G48">
-        <v>-5.8911490000000004</v>
+        <v>-5.8900500000000005</v>
       </c>
       <c r="H48">
-        <v>-5.8766394999999996</v>
+        <v>-5.8753227500000005</v>
       </c>
       <c r="I48">
-        <v>-5.8613629999999999</v>
+        <v>-5.8598967499999999</v>
       </c>
       <c r="J48">
-        <v>-5.8470624999999998</v>
+        <v>-5.8462575000000001</v>
       </c>
       <c r="K48">
-        <v>-5.8312010000000001</v>
+        <v>-5.8302585000000002</v>
       </c>
       <c r="L48">
         <f t="shared" si="37"/>
-        <v>-5.7888999499999994</v>
+        <v>-5.7877292000000002</v>
       </c>
       <c r="M48">
         <f t="shared" si="38"/>
-        <v>-5.7618895000000006</v>
+        <v>-5.7607905000000006</v>
       </c>
       <c r="N48">
         <f t="shared" si="39"/>
-        <v>-5.7344540499999992</v>
+        <v>-5.7331373000000001</v>
       </c>
       <c r="O48">
         <f t="shared" si="40"/>
-        <v>-5.7062515999999999</v>
+        <v>-5.7047853499999999</v>
       </c>
       <c r="P48">
         <f t="shared" si="41"/>
-        <v>-5.6790251500000002</v>
+        <v>-5.6782201500000005</v>
       </c>
       <c r="Q48">
         <f t="shared" si="42"/>
-        <v>-5.6502376999999999</v>
+        <v>-5.6492952000000001</v>
       </c>
       <c r="R48">
         <v>0.7</v>
       </c>
       <c r="S48">
         <f t="shared" si="43"/>
-        <v>2.7010449999998799E-4</v>
+        <v>2.6938699999999648E-4</v>
       </c>
       <c r="T48">
         <f t="shared" si="44"/>
-        <v>2.743545000000136E-4</v>
+        <v>2.7653200000000489E-4</v>
       </c>
       <c r="U48">
         <f t="shared" si="45"/>
-        <v>2.8202449999999325E-4</v>
+        <v>2.8351950000000237E-4</v>
       </c>
       <c r="V48">
         <f t="shared" si="46"/>
-        <v>2.7226449999999679E-4</v>
+        <v>2.6565199999999399E-4</v>
       </c>
       <c r="W48">
         <f t="shared" si="47"/>
-        <v>2.8787450000000269E-4</v>
+        <v>2.8924950000000396E-4</v>
       </c>
       <c r="X48">
         <v>0.7</v>
       </c>
       <c r="Y48">
         <f t="shared" si="33"/>
-        <v>26.057640169978839</v>
+        <v>25.98842119427966</v>
       </c>
       <c r="Z48">
         <f t="shared" si="33"/>
-        <v>26.467648039981313</v>
+        <v>26.67771677808047</v>
       </c>
       <c r="AA48">
         <f t="shared" si="34"/>
-        <v>27.207591654779346</v>
+        <v>27.351817952580227</v>
       </c>
       <c r="AB48">
         <f t="shared" si="35"/>
-        <v>26.26602064037969</v>
+        <v>25.628096630879419</v>
       </c>
       <c r="AC48">
         <f t="shared" si="36"/>
-        <v>27.771955428780256</v>
+        <v>27.904605033780381</v>
       </c>
       <c r="AE48">
         <f t="shared" si="48"/>
-        <v>26.754171186779889</v>
+        <v>26.710131517920029</v>
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.2">
@@ -60300,96 +63082,96 @@
         <v>0.8</v>
       </c>
       <c r="F49" s="7">
-        <v>-5.9766500000000002</v>
+        <v>-5.9766694999999999</v>
       </c>
       <c r="G49">
-        <v>-5.9620565000000001</v>
+        <v>-5.9617112500000005</v>
       </c>
       <c r="H49">
-        <v>-5.9470175000000003</v>
+        <v>-5.9473570000000002</v>
       </c>
       <c r="I49">
-        <v>-5.9349379999999998</v>
+        <v>-5.9343104999999996</v>
       </c>
       <c r="J49">
-        <v>-5.9185185000000002</v>
+        <v>-5.9184160000000006</v>
       </c>
       <c r="K49">
-        <v>-5.9038525000000002</v>
+        <v>-5.9032292500000008</v>
       </c>
       <c r="L49">
         <f t="shared" si="37"/>
-        <v>-5.86031645</v>
+        <v>-5.8603359499999996</v>
       </c>
       <c r="M49">
         <f t="shared" si="38"/>
-        <v>-5.8327970000000002</v>
+        <v>-5.8324517500000006</v>
       </c>
       <c r="N49">
         <f t="shared" si="39"/>
-        <v>-5.8048320499999999</v>
+        <v>-5.8051715499999998</v>
       </c>
       <c r="O49">
         <f t="shared" si="40"/>
-        <v>-5.7798265999999998</v>
+        <v>-5.7791990999999996</v>
       </c>
       <c r="P49">
         <f t="shared" si="41"/>
-        <v>-5.7504811500000006</v>
+        <v>-5.7503786500000009</v>
       </c>
       <c r="Q49">
         <f t="shared" si="42"/>
-        <v>-5.7228892</v>
+        <v>-5.7222659500000006</v>
       </c>
       <c r="R49">
         <v>0.8</v>
       </c>
       <c r="S49">
         <f t="shared" si="43"/>
-        <v>2.7519449999999777E-4</v>
+        <v>2.7884199999999025E-4</v>
       </c>
       <c r="T49">
         <f t="shared" si="44"/>
-        <v>2.7964950000000324E-4</v>
+        <v>2.7280200000000753E-4</v>
       </c>
       <c r="U49">
         <f t="shared" si="45"/>
-        <v>2.5005450000000097E-4</v>
+        <v>2.5972450000000258E-4</v>
       </c>
       <c r="V49">
         <f t="shared" si="46"/>
-        <v>2.9345449999999216E-4</v>
+        <v>2.8820449999998664E-4</v>
       </c>
       <c r="W49">
         <f t="shared" si="47"/>
-        <v>2.7591950000000587E-4</v>
+        <v>2.8112700000000325E-4</v>
       </c>
       <c r="X49">
         <v>0.8</v>
       </c>
       <c r="Y49">
         <f t="shared" si="33"/>
-        <v>26.548684889579782</v>
+        <v>26.900568114479057</v>
       </c>
       <c r="Z49">
         <f t="shared" si="33"/>
-        <v>26.978469609780309</v>
+        <v>26.317874576880723</v>
       </c>
       <c r="AA49">
         <f t="shared" si="34"/>
-        <v>24.12336774798009</v>
+        <v>25.056256242780243</v>
       </c>
       <c r="AB49">
         <f t="shared" si="35"/>
-        <v>28.310271643979242</v>
+        <v>27.803791333978708</v>
       </c>
       <c r="AC49">
         <f t="shared" si="36"/>
-        <v>26.618627408580565</v>
+        <v>27.121007639880311</v>
       </c>
       <c r="AE49">
         <f t="shared" si="48"/>
-        <v>26.515884259979998</v>
+        <v>26.63989958159981</v>
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.2">
@@ -60397,96 +63179,96 @@
         <v>0.9</v>
       </c>
       <c r="F50" s="7">
-        <v>-6.0331950000000001</v>
+        <v>-6.0336289999999995</v>
       </c>
       <c r="G50">
-        <v>-6.0188005000000002</v>
+        <v>-6.0189279999999998</v>
       </c>
       <c r="H50">
-        <v>-6.0047344999999996</v>
+        <v>-6.0044662500000001</v>
       </c>
       <c r="I50">
-        <v>-5.9913495000000001</v>
+        <v>-5.9904582499999997</v>
       </c>
       <c r="J50">
-        <v>-5.9757749999999996</v>
+        <v>-5.9756245000000003</v>
       </c>
       <c r="K50">
-        <v>-5.9595729999999998</v>
+        <v>-5.9600827499999998</v>
       </c>
       <c r="L50">
         <f t="shared" si="37"/>
-        <v>-5.9168614499999999</v>
+        <v>-5.9172954499999992</v>
       </c>
       <c r="M50">
         <f t="shared" si="38"/>
-        <v>-5.8895410000000004</v>
+        <v>-5.8896685</v>
       </c>
       <c r="N50">
         <f t="shared" si="39"/>
-        <v>-5.8625490499999993</v>
+        <v>-5.8622807999999997</v>
       </c>
       <c r="O50">
         <f t="shared" si="40"/>
-        <v>-5.8362381000000001</v>
+        <v>-5.8353468499999996</v>
       </c>
       <c r="P50">
         <f t="shared" si="41"/>
-        <v>-5.80773765</v>
+        <v>-5.8075871500000007</v>
       </c>
       <c r="Q50">
         <f t="shared" si="42"/>
-        <v>-5.7786096999999996</v>
+        <v>-5.7791194499999996</v>
       </c>
       <c r="R50">
         <v>0.9</v>
       </c>
       <c r="S50">
         <f t="shared" si="43"/>
-        <v>2.7320449999999495E-4</v>
+        <v>2.7626949999999263E-4</v>
       </c>
       <c r="T50">
         <f t="shared" si="44"/>
-        <v>2.6991950000001099E-4</v>
+        <v>2.7387700000000239E-4</v>
       </c>
       <c r="U50">
         <f t="shared" si="45"/>
-        <v>2.6310949999999169E-4</v>
+        <v>2.6933950000000093E-4</v>
       </c>
       <c r="V50">
         <f t="shared" si="46"/>
-        <v>2.850045000000012E-4</v>
+        <v>2.7759699999998946E-4</v>
       </c>
       <c r="W50">
         <f t="shared" si="47"/>
-        <v>2.9127950000000345E-4</v>
+        <v>2.8467700000001095E-4</v>
       </c>
       <c r="X50">
         <v>0.9</v>
       </c>
       <c r="Y50">
         <f t="shared" si="33"/>
-        <v>26.356704733979512</v>
+        <v>26.652392762579286</v>
       </c>
       <c r="Z50">
         <f t="shared" si="33"/>
-        <v>26.039792768581059</v>
+        <v>26.42158244988023</v>
       </c>
       <c r="AA50">
         <f t="shared" si="34"/>
-        <v>25.382815452179198</v>
+        <v>25.983838753380088</v>
       </c>
       <c r="AB50">
         <f t="shared" si="35"/>
-        <v>27.495079525980113</v>
+        <v>26.780459926678979</v>
       </c>
       <c r="AC50">
         <f t="shared" si="36"/>
-        <v>28.100444086980328</v>
+        <v>27.463484801881052</v>
       </c>
       <c r="AE50">
         <f t="shared" si="48"/>
-        <v>26.674967313540044</v>
+        <v>26.660351738879921</v>
       </c>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.2">
@@ -60494,96 +63276,96 @@
         <v>1</v>
       </c>
       <c r="F51" s="7">
-        <v>-6.0785825000000004</v>
+        <v>-6.0785852499999997</v>
       </c>
       <c r="G51">
-        <v>-6.0639519999999996</v>
+        <v>-6.0639557499999999</v>
       </c>
       <c r="H51">
-        <v>-6.0492214999999998</v>
+        <v>-6.0491885000000005</v>
       </c>
       <c r="I51">
-        <v>-6.034243</v>
+        <v>-6.0342562500000003</v>
       </c>
       <c r="J51">
-        <v>-6.0191675</v>
+        <v>-6.0191724999999998</v>
       </c>
       <c r="K51">
-        <v>-6.0039850000000001</v>
+        <v>-6.0040002499999998</v>
       </c>
       <c r="L51">
         <f t="shared" si="37"/>
-        <v>-5.9622489500000002</v>
+        <v>-5.9622516999999995</v>
       </c>
       <c r="M51">
         <f t="shared" si="38"/>
-        <v>-5.9346924999999997</v>
+        <v>-5.93469625</v>
       </c>
       <c r="N51">
         <f t="shared" si="39"/>
-        <v>-5.9070360499999994</v>
+        <v>-5.9070030500000001</v>
       </c>
       <c r="O51">
         <f t="shared" si="40"/>
-        <v>-5.8791316</v>
+        <v>-5.8791448500000003</v>
       </c>
       <c r="P51">
         <f t="shared" si="41"/>
-        <v>-5.8511301500000004</v>
+        <v>-5.8511351500000002</v>
       </c>
       <c r="Q51">
         <f t="shared" si="42"/>
-        <v>-5.8230217</v>
+        <v>-5.8230369499999997</v>
       </c>
       <c r="R51">
         <v>1</v>
       </c>
       <c r="S51">
         <f>(M51-L51)/(M$38-L$38)</f>
-        <v>2.7556450000000511E-4</v>
+        <v>2.7555449999999482E-4</v>
       </c>
       <c r="T51">
         <f>(N51-M51)/(N$38-M$38)</f>
-        <v>2.7656450000000275E-4</v>
+        <v>2.7693199999999862E-4</v>
       </c>
       <c r="U51">
         <f t="shared" si="45"/>
-        <v>2.7904449999999415E-4</v>
+        <v>2.7858199999999836E-4</v>
       </c>
       <c r="V51">
         <f t="shared" si="46"/>
-        <v>2.8001449999999652E-4</v>
+        <v>2.8009700000000139E-4</v>
       </c>
       <c r="W51">
         <f t="shared" si="47"/>
-        <v>2.8108450000000393E-4</v>
+        <v>2.8098200000000519E-4</v>
       </c>
       <c r="X51">
         <v>1</v>
       </c>
       <c r="Y51">
         <f t="shared" si="33"/>
-        <v>26.584379692380491</v>
+        <v>26.583414967979497</v>
       </c>
       <c r="Z51">
         <f t="shared" si="33"/>
-        <v>26.680852132380263</v>
+        <v>26.716305754079865</v>
       </c>
       <c r="AA51">
         <f t="shared" si="34"/>
-        <v>26.920103783579432</v>
+        <v>26.87548528007984</v>
       </c>
       <c r="AB51">
         <f t="shared" si="35"/>
-        <v>27.013682050379661</v>
+        <v>27.021641026680133</v>
       </c>
       <c r="AC51">
         <f t="shared" si="36"/>
-        <v>27.116907561180376</v>
+        <v>27.107019136080499</v>
       </c>
       <c r="AE51">
         <f t="shared" si="48"/>
-        <v>26.863185043980042</v>
+        <v>26.860773232979966</v>
       </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.2">
@@ -60604,34 +63386,43 @@
       </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
       <c r="X53" t="s">
         <v>57</v>
       </c>
       <c r="Y53">
         <f>AVERAGE(Y39:Y51)</f>
-        <v>26.709497026102728</v>
+        <v>26.767955614264185</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53:AC53" si="49">AVERAGE(Z39:Z51)</f>
-        <v>27.391891119965102</v>
+        <v>27.19599640958824</v>
       </c>
       <c r="AA53">
         <f t="shared" si="49"/>
-        <v>26.886523953502788</v>
+        <v>27.169633460118071</v>
       </c>
       <c r="AB53">
         <f t="shared" si="49"/>
-        <v>28.358878911825666</v>
+        <v>27.913602944048908</v>
       </c>
       <c r="AC53">
         <f t="shared" si="49"/>
-        <v>28.312275302349672</v>
+        <v>28.469970636965023</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>900</v>
       </c>
+      <c r="G55">
+        <v>900</v>
+      </c>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
@@ -60646,6 +63437,24 @@
       <c r="E56" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B57" s="7">
@@ -60660,6 +63469,29 @@
       <c r="E57" s="7">
         <v>0</v>
       </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>-10331.2335</v>
+      </c>
+      <c r="I57">
+        <v>2000</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ref="K57:K69" si="50">J57/SUM(I57:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f>H57/SUM(I57:J57)</f>
+        <v>-5.1656167499999999</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B58" s="7">
@@ -60674,6 +63506,29 @@
       <c r="E58" s="7">
         <v>1.3193730000000001E-2</v>
       </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>-10395.674999999999</v>
+      </c>
+      <c r="I58">
+        <v>1900.59</v>
+      </c>
+      <c r="J58">
+        <v>99.41</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="50"/>
+        <v>4.9704999999999999E-2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ref="L58:L69" si="51">H58/SUM(I58:J58)</f>
+        <v>-5.1978374999999994</v>
+      </c>
+      <c r="M58">
+        <v>1.3158349292500426E-2</v>
+      </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B59" s="7">
@@ -60688,6 +63543,29 @@
       <c r="E59" s="7">
         <v>1.190738E-2</v>
       </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>-10489.895500000001</v>
+      </c>
+      <c r="I59">
+        <v>1799.925</v>
+      </c>
+      <c r="J59">
+        <v>200.07499999999999</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="50"/>
+        <v>0.10003749999999999</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="51"/>
+        <v>-5.2449477500000006</v>
+      </c>
+      <c r="M59">
+        <v>1.2000086318749381E-2</v>
+      </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B60" s="7">
@@ -60702,6 +63580,29 @@
       <c r="E60" s="7">
         <v>2.1360699999999999E-3</v>
       </c>
+      <c r="G60">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>-10601.134</v>
+      </c>
+      <c r="I60">
+        <v>1699.23</v>
+      </c>
+      <c r="J60">
+        <v>300.77</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="50"/>
+        <v>0.15038499999999999</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="51"/>
+        <v>-5.300567</v>
+      </c>
+      <c r="M60">
+        <v>2.3465178725001756E-3</v>
+      </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B61" s="7">
@@ -60716,6 +63617,29 @@
       <c r="E61" s="7">
         <v>-2.0733499999999998E-2</v>
       </c>
+      <c r="G61">
+        <v>23</v>
+      </c>
+      <c r="H61">
+        <v>-10792.277</v>
+      </c>
+      <c r="I61">
+        <v>1540.4949999999999</v>
+      </c>
+      <c r="J61">
+        <v>459.505</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="50"/>
+        <v>0.2297525</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="51"/>
+        <v>-5.3961385000000002</v>
+      </c>
+      <c r="M61">
+        <v>-2.0764954703750726E-2</v>
+      </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B62" s="7">
@@ -60730,6 +63654,29 @@
       <c r="E62" s="7">
         <v>-4.3838099999999998E-2</v>
       </c>
+      <c r="G62">
+        <v>30</v>
+      </c>
+      <c r="H62">
+        <v>-10968.544</v>
+      </c>
+      <c r="I62">
+        <v>1398.22</v>
+      </c>
+      <c r="J62">
+        <v>601.78</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="50"/>
+        <v>0.30088999999999999</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="51"/>
+        <v>-5.4842719999999998</v>
+      </c>
+      <c r="M62">
+        <v>-4.3952158034999966E-2</v>
+      </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B63" s="7">
@@ -60744,6 +63691,29 @@
       <c r="E63" s="7">
         <v>-7.3676800000000001E-2</v>
       </c>
+      <c r="G63">
+        <v>40</v>
+      </c>
+      <c r="H63">
+        <v>-11207.699000000001</v>
+      </c>
+      <c r="I63">
+        <v>1200.385</v>
+      </c>
+      <c r="J63">
+        <v>799.61500000000001</v>
+      </c>
+      <c r="K63">
+        <f>J63/SUM(I63:J63)</f>
+        <v>0.39980749999999998</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="51"/>
+        <v>-5.6038494999999999</v>
+      </c>
+      <c r="M63">
+        <v>-7.3221096436249855E-2</v>
+      </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B64" s="7">
@@ -60758,8 +63728,31 @@
       <c r="E64" s="7">
         <v>-9.3713400000000002E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>50</v>
+      </c>
+      <c r="H64">
+        <v>-11430.386500000001</v>
+      </c>
+      <c r="I64">
+        <v>1002.03</v>
+      </c>
+      <c r="J64">
+        <v>997.97</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="50"/>
+        <v>0.49898500000000001</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="51"/>
+        <v>-5.7151932500000004</v>
+      </c>
+      <c r="M64">
+        <v>-9.4018913027500428E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="7">
         <v>-5.8171875000000002</v>
       </c>
@@ -60772,8 +63765,31 @@
       <c r="E65" s="7">
         <v>-0.1042068</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>60</v>
+      </c>
+      <c r="H65">
+        <v>-11635.475</v>
+      </c>
+      <c r="I65">
+        <v>799.47500000000002</v>
+      </c>
+      <c r="J65">
+        <v>1200.5250000000001</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="50"/>
+        <v>0.60026250000000003</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="51"/>
+        <v>-5.8177374999999998</v>
+      </c>
+      <c r="M65">
+        <v>-0.10409999576874984</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="7">
         <v>-5.9052334999999996</v>
       </c>
@@ -60786,8 +63802,31 @@
       <c r="E66" s="7">
         <v>-9.9865200000000001E-2</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>70</v>
+      </c>
+      <c r="H66">
+        <v>-11808.1255</v>
+      </c>
+      <c r="I66">
+        <v>601.79999999999995</v>
+      </c>
+      <c r="J66">
+        <v>1398.2</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="50"/>
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="51"/>
+        <v>-5.9040627500000005</v>
+      </c>
+      <c r="M66">
+        <v>-0.10018972165000051</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="7">
         <v>-5.9766500000000002</v>
       </c>
@@ -60800,8 +63839,31 @@
       <c r="E67" s="7">
         <v>-8.0236199999999994E-2</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>80</v>
+      </c>
+      <c r="H67">
+        <v>-11953.339</v>
+      </c>
+      <c r="I67">
+        <v>399.38499999999999</v>
+      </c>
+      <c r="J67">
+        <v>1600.615</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="50"/>
+        <v>0.80030749999999995</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="51"/>
+        <v>-5.9766694999999999</v>
+      </c>
+      <c r="M67">
+        <v>-8.03972121862504E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="7">
         <v>-6.0331950000000001</v>
       </c>
@@ -60814,8 +63876,31 @@
       <c r="E68" s="7">
         <v>-4.6233200000000002E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>90</v>
+      </c>
+      <c r="H68">
+        <v>-12067.258</v>
+      </c>
+      <c r="I68">
+        <v>199.995</v>
+      </c>
+      <c r="J68">
+        <v>1800.0050000000001</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="50"/>
+        <v>0.90000250000000004</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="51"/>
+        <v>-6.0336289999999995</v>
+      </c>
+      <c r="M68">
+        <v>-4.6338317578749511E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="7">
         <v>-6.0785825000000004</v>
       </c>
@@ -60828,13 +63913,57 @@
       <c r="E69" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>-12157.1705</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2000</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="51"/>
+        <v>-6.0785852499999997</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" t="s">
+        <v>73</v>
+      </c>
+      <c r="K71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" t="s">
+        <v>8</v>
+      </c>
+      <c r="M71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>8</v>
       </c>
@@ -60847,8 +63976,29 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>-10301.498</v>
+      </c>
+      <c r="I72">
+        <v>2000</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>-5.1507489999999994</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>-5.1507509999999996</v>
       </c>
@@ -60861,8 +64011,29 @@
       <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>-10366.335499999999</v>
+      </c>
+      <c r="I73">
+        <v>1899.61</v>
+      </c>
+      <c r="J73">
+        <v>100.39</v>
+      </c>
+      <c r="K73">
+        <v>5.0195000000000004E-2</v>
+      </c>
+      <c r="L73">
+        <v>-5.18316775</v>
+      </c>
+      <c r="M73">
+        <v>1.34196628162499E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>-5.1831135000000002</v>
       </c>
@@ -60875,8 +64046,29 @@
       <c r="E74">
         <v>1.3347776054999871E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>-10458.949000000001</v>
+      </c>
+      <c r="I74">
+        <v>1800.5</v>
+      </c>
+      <c r="J74">
+        <v>199.5</v>
+      </c>
+      <c r="K74">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="L74">
+        <v>-5.2294745000000002</v>
+      </c>
+      <c r="M74">
+        <v>1.2366873312499527E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>-5.2296740000000002</v>
       </c>
@@ -60889,8 +64081,29 @@
       <c r="E75">
         <v>1.2438194044999684E-2</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>-10569.245000000001</v>
+      </c>
+      <c r="I75">
+        <v>1700.57</v>
+      </c>
+      <c r="J75">
+        <v>299.43</v>
+      </c>
+      <c r="K75">
+        <v>0.14971500000000001</v>
+      </c>
+      <c r="L75">
+        <v>-5.2846225000000002</v>
+      </c>
+      <c r="M75">
+        <v>2.8472485762491839E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>-5.2847489999999997</v>
       </c>
@@ -60903,8 +64116,29 @@
       <c r="E76">
         <v>2.8725658799995113E-3</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>23</v>
+      </c>
+      <c r="H76">
+        <v>-10760.733</v>
+      </c>
+      <c r="I76">
+        <v>1541.855</v>
+      </c>
+      <c r="J76">
+        <v>458.14499999999998</v>
+      </c>
+      <c r="K76">
+        <v>0.22907249999999998</v>
+      </c>
+      <c r="L76">
+        <v>-5.3803665000000001</v>
+      </c>
+      <c r="M76">
+        <v>-2.042694676062573E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>-5.3810979999999997</v>
       </c>
@@ -60917,8 +64151,29 @@
       <c r="E77">
         <v>-2.0708012435000311E-2</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>30</v>
+      </c>
+      <c r="H77">
+        <v>-10936.208500000001</v>
+      </c>
+      <c r="I77">
+        <v>1400.75</v>
+      </c>
+      <c r="J77">
+        <v>599.25</v>
+      </c>
+      <c r="K77">
+        <v>0.29962499999999997</v>
+      </c>
+      <c r="L77">
+        <v>-5.4681042500000006</v>
+      </c>
+      <c r="M77">
+        <v>-4.3735677531251405E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>-5.4686060000000003</v>
       </c>
@@ -60931,8 +64186,29 @@
       <c r="E78">
         <v>-4.3762285855000638E-2</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>40</v>
+      </c>
+      <c r="H78">
+        <v>-11176.969499999999</v>
+      </c>
+      <c r="I78">
+        <v>1201.44</v>
+      </c>
+      <c r="J78">
+        <v>798.56</v>
+      </c>
+      <c r="K78">
+        <v>0.39927999999999997</v>
+      </c>
+      <c r="L78">
+        <v>-5.5884847499999992</v>
+      </c>
+      <c r="M78">
+        <v>-7.3110558859999841E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>-5.5881790000000002</v>
       </c>
@@ -60945,8 +64221,29 @@
       <c r="E79">
         <v>-7.2919254845000392E-2</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>50</v>
+      </c>
+      <c r="H79">
+        <v>-11406.133</v>
+      </c>
+      <c r="I79">
+        <v>998.04</v>
+      </c>
+      <c r="J79">
+        <v>1001.96</v>
+      </c>
+      <c r="K79">
+        <v>0.50097999999999998</v>
+      </c>
+      <c r="L79">
+        <v>-5.7030665000000003</v>
+      </c>
+      <c r="M79">
+        <v>-9.4819182385000644E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>-5.7038824999999997</v>
       </c>
@@ -60959,8 +64256,29 @@
       <c r="E80">
         <v>-9.5115538449999981E-2</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>60</v>
+      </c>
+      <c r="H80">
+        <v>-11607.5105</v>
+      </c>
+      <c r="I80">
+        <v>797.84500000000003</v>
+      </c>
+      <c r="J80">
+        <v>1202.155</v>
+      </c>
+      <c r="K80">
+        <v>0.60107749999999993</v>
+      </c>
+      <c r="L80">
+        <v>-5.80375525</v>
+      </c>
+      <c r="M80">
+        <v>-0.10409821972687539</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>-5.8025085000000001</v>
       </c>
@@ -60973,8 +64291,29 @@
       <c r="E81">
         <v>-0.10396018213500025</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>70</v>
+      </c>
+      <c r="H81">
+        <v>-11721.199500000001</v>
+      </c>
+      <c r="I81">
+        <v>597.86</v>
+      </c>
+      <c r="J81">
+        <v>1392.14</v>
+      </c>
+      <c r="K81">
+        <v>0.69956783919597998</v>
+      </c>
+      <c r="L81">
+        <v>-5.8900500000000005</v>
+      </c>
+      <c r="M81">
+        <v>-0.10045092716331716</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>-5.8911490000000004</v>
       </c>
@@ -60987,8 +64326,29 @@
       <c r="E82">
         <v>-0.10057741736500159</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>80</v>
+      </c>
+      <c r="H82">
+        <v>-11923.422500000001</v>
+      </c>
+      <c r="I82">
+        <v>402.10500000000002</v>
+      </c>
+      <c r="J82">
+        <v>1597.895</v>
+      </c>
+      <c r="K82">
+        <v>0.79894750000000003</v>
+      </c>
+      <c r="L82">
+        <v>-5.9617112500000005</v>
+      </c>
+      <c r="M82">
+        <v>-8.1358000104375883E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>-5.9620565000000001</v>
       </c>
@@ -61001,8 +64361,29 @@
       <c r="E83">
         <v>-8.1132810425000201E-2</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>90</v>
+      </c>
+      <c r="H83">
+        <v>-12037.856</v>
+      </c>
+      <c r="I83">
+        <v>201.19499999999999</v>
+      </c>
+      <c r="J83">
+        <v>1798.8050000000001</v>
+      </c>
+      <c r="K83">
+        <v>0.89940249999999999</v>
+      </c>
+      <c r="L83">
+        <v>-6.0189279999999998</v>
+      </c>
+      <c r="M83">
+        <v>-4.6838566033125417E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>-6.0188005000000002</v>
       </c>
@@ -61015,8 +64396,29 @@
       <c r="E84">
         <v>-4.7332931275000156E-2</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84">
+        <v>-12127.9115</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>2000</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>-6.0639557499999999</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>-6.0639519999999996</v>
       </c>
@@ -61030,12 +64432,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>1100</v>
+      </c>
+      <c r="H86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>72</v>
+      </c>
+      <c r="J86" t="s">
+        <v>73</v>
+      </c>
+      <c r="K86" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" t="s">
+        <v>8</v>
+      </c>
+      <c r="M86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>1100</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>-10270.245000000001</v>
+      </c>
+      <c r="I87">
+        <v>2000</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>-5.1351225000000005</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>8</v>
       </c>
@@ -61048,8 +64494,29 @@
       <c r="E88" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>-10334.040999999999</v>
+      </c>
+      <c r="I88">
+        <v>1900.5150000000001</v>
+      </c>
+      <c r="J88">
+        <v>99.484999999999999</v>
+      </c>
+      <c r="K88">
+        <v>4.9742500000000002E-2</v>
+      </c>
+      <c r="L88">
+        <v>-5.1670204999999996</v>
+      </c>
+      <c r="M88">
+        <v>1.3569928005000453E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>-5.1351149999999999</v>
       </c>
@@ -61062,8 +64529,29 @@
       <c r="E89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>10</v>
+      </c>
+      <c r="H89">
+        <v>-10427.085499999999</v>
+      </c>
+      <c r="I89">
+        <v>1801.0150000000001</v>
+      </c>
+      <c r="J89">
+        <v>198.98500000000001</v>
+      </c>
+      <c r="K89">
+        <v>9.9492500000000011E-2</v>
+      </c>
+      <c r="L89">
+        <v>-5.2135427499999993</v>
+      </c>
+      <c r="M89">
+        <v>1.2522461505001026E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>-5.1675095000000004</v>
       </c>
@@ -61076,8 +64564,29 @@
       <c r="E90">
         <v>1.3617050677499687E-2</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>-10537.571</v>
+      </c>
+      <c r="I90">
+        <v>1700.825</v>
+      </c>
+      <c r="J90">
+        <v>299.17500000000001</v>
+      </c>
+      <c r="K90">
+        <v>0.14958750000000001</v>
+      </c>
+      <c r="L90">
+        <v>-5.2687854999999999</v>
+      </c>
+      <c r="M90">
+        <v>3.0698477750011888E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>-5.2132959999999997</v>
       </c>
@@ -61090,8 +64599,29 @@
       <c r="E91">
         <v>1.2562352255000131E-2</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>23</v>
+      </c>
+      <c r="H91">
+        <v>-10732.121999999999</v>
+      </c>
+      <c r="I91">
+        <v>1540.125</v>
+      </c>
+      <c r="J91">
+        <v>459.875</v>
+      </c>
+      <c r="K91">
+        <v>0.22993749999999999</v>
+      </c>
+      <c r="L91">
+        <v>-5.3660609999999993</v>
+      </c>
+      <c r="M91">
+        <v>-2.0760449124998859E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>-5.2677630000000004</v>
       </c>
@@ -61104,8 +64634,29 @@
       <c r="E92">
         <v>3.2339312249993757E-3</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>30</v>
+      </c>
+      <c r="H92">
+        <v>-10905.91</v>
+      </c>
+      <c r="I92">
+        <v>1400.2850000000001</v>
+      </c>
+      <c r="J92">
+        <v>599.71500000000003</v>
+      </c>
+      <c r="K92">
+        <v>0.2998575</v>
+      </c>
+      <c r="L92">
+        <v>-5.4529550000000002</v>
+      </c>
+      <c r="M92">
+        <v>-4.3742954404999868E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>-5.3645275000000003</v>
       </c>
@@ -61118,8 +64669,29 @@
       <c r="E93">
         <v>-2.0246650670000754E-2</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>40</v>
+      </c>
+      <c r="H93">
+        <v>-11144.264499999999</v>
+      </c>
+      <c r="I93">
+        <v>1203.4849999999999</v>
+      </c>
+      <c r="J93">
+        <v>796.51499999999999</v>
+      </c>
+      <c r="K93">
+        <v>0.39825749999999999</v>
+      </c>
+      <c r="L93">
+        <v>-5.5721322499999992</v>
+      </c>
+      <c r="M93">
+        <v>-7.2976110004998596E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>-5.4547274999999997</v>
       </c>
@@ -61132,8 +64704,29 @@
       <c r="E94">
         <v>-4.4132794627499861E-2</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>50</v>
+      </c>
+      <c r="H94">
+        <v>-11371.610500000001</v>
+      </c>
+      <c r="I94">
+        <v>1002.1950000000001</v>
+      </c>
+      <c r="J94">
+        <v>997.80499999999995</v>
+      </c>
+      <c r="K94">
+        <v>0.49890249999999997</v>
+      </c>
+      <c r="L94">
+        <v>-5.6858052500000005</v>
+      </c>
+      <c r="M94">
+        <v>-9.4652937435000251E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>-5.5718354999999997</v>
       </c>
@@ -61146,8 +64739,29 @@
       <c r="E95">
         <v>-7.2407924957499592E-2</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>60</v>
+      </c>
+      <c r="H95">
+        <v>-11580.477000000001</v>
+      </c>
+      <c r="I95">
+        <v>796.12</v>
+      </c>
+      <c r="J95">
+        <v>1203.8800000000001</v>
+      </c>
+      <c r="K95">
+        <v>0.60194000000000003</v>
+      </c>
+      <c r="L95">
+        <v>-5.7902385000000001</v>
+      </c>
+      <c r="M95">
+        <v>-0.10490311195999968</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>-5.6853410000000002</v>
       </c>
@@ -61160,8 +64774,29 @@
       <c r="E96">
         <v>-9.4489063360000625E-2</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>70</v>
+      </c>
+      <c r="H96">
+        <v>-11750.645500000001</v>
+      </c>
+      <c r="I96">
+        <v>600.88</v>
+      </c>
+      <c r="J96">
+        <v>1399.12</v>
+      </c>
+      <c r="K96">
+        <v>0.69955999999999996</v>
+      </c>
+      <c r="L96">
+        <v>-5.8753227500000005</v>
+      </c>
+      <c r="M96">
+        <v>-0.10075623904000075</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>-5.7897135000000004</v>
       </c>
@@ -61174,8 +64809,29 @@
       <c r="E97">
         <v>-0.10470859386000075</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>80</v>
+      </c>
+      <c r="H97">
+        <v>-11894.714</v>
+      </c>
+      <c r="I97">
+        <v>401.35</v>
+      </c>
+      <c r="J97">
+        <v>1598.65</v>
+      </c>
+      <c r="K97">
+        <v>0.79932500000000006</v>
+      </c>
+      <c r="L97">
+        <v>-5.9473570000000002</v>
+      </c>
+      <c r="M97">
+        <v>-8.1598694549999351E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>-5.8766394999999996</v>
       </c>
@@ -61188,8 +64844,29 @@
       <c r="E98">
         <v>-0.10076326669500002</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>90</v>
+      </c>
+      <c r="H98">
+        <v>-12008.932500000001</v>
+      </c>
+      <c r="I98">
+        <v>200.89500000000001</v>
+      </c>
+      <c r="J98">
+        <v>1799.105</v>
+      </c>
+      <c r="K98">
+        <v>0.89955249999999998</v>
+      </c>
+      <c r="L98">
+        <v>-6.0044662500000001</v>
+      </c>
+      <c r="M98">
+        <v>-4.7093394534999611E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>-5.9470175000000003</v>
       </c>
@@ -61202,8 +64879,29 @@
       <c r="E99">
         <v>-8.1458277980000382E-2</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>-12098.377</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2000</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>-6.0491885000000005</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>-6.0047344999999996</v>
       </c>
@@ -61217,7 +64915,7 @@
         <v>-4.682309828500042E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>-6.0492214999999998</v>
       </c>
@@ -61230,13 +64928,78 @@
       <c r="E101">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>1200</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>72</v>
+      </c>
+      <c r="J101" t="s">
+        <v>73</v>
+      </c>
+      <c r="K101" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>-10237.32</v>
+      </c>
+      <c r="I102">
+        <v>2000</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>-5.1186600000000002</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>1200</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <v>-10301.787</v>
+      </c>
+      <c r="I103">
+        <v>1899.2</v>
+      </c>
+      <c r="J103">
+        <v>100.8</v>
+      </c>
+      <c r="K103">
+        <v>5.04E-2</v>
+      </c>
+      <c r="L103">
+        <v>-5.1508935000000005</v>
+      </c>
+      <c r="M103">
+        <v>1.3912550999999718E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>8</v>
       </c>
@@ -61249,8 +65012,29 @@
       <c r="E104" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>10</v>
+      </c>
+      <c r="H104">
+        <v>-10394.1175</v>
+      </c>
+      <c r="I104">
+        <v>1800.655</v>
+      </c>
+      <c r="J104">
+        <v>199.345</v>
+      </c>
+      <c r="K104">
+        <v>9.9672499999999997E-2</v>
+      </c>
+      <c r="L104">
+        <v>-5.1970587500000001</v>
+      </c>
+      <c r="M104">
+        <v>1.286101722812516E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>-5.1186870000000004</v>
       </c>
@@ -61263,8 +65047,29 @@
       <c r="E105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>15</v>
+      </c>
+      <c r="H105">
+        <v>-10508.812</v>
+      </c>
+      <c r="I105">
+        <v>1697.55</v>
+      </c>
+      <c r="J105">
+        <v>302.45</v>
+      </c>
+      <c r="K105">
+        <v>0.151225</v>
+      </c>
+      <c r="L105">
+        <v>-5.2544060000000004</v>
+      </c>
+      <c r="M105">
+        <v>2.7150429062505754E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>-5.1502569999999999</v>
       </c>
@@ -61277,8 +65082,29 @@
       <c r="E106">
         <v>1.3717977540000814E-2</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>23</v>
+      </c>
+      <c r="H106">
+        <v>-10698.3285</v>
+      </c>
+      <c r="I106">
+        <v>1541.73</v>
+      </c>
+      <c r="J106">
+        <v>458.27</v>
+      </c>
+      <c r="K106">
+        <v>0.22913499999999998</v>
+      </c>
+      <c r="L106">
+        <v>-5.3491642499999994</v>
+      </c>
+      <c r="M106">
+        <v>-2.0709103256249195E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>-5.1964984999999997</v>
       </c>
@@ -61291,8 +65117,29 @@
       <c r="E107">
         <v>1.2933832940000722E-2</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>30</v>
+      </c>
+      <c r="H107">
+        <v>-10874.7255</v>
+      </c>
+      <c r="I107">
+        <v>1399.2850000000001</v>
+      </c>
+      <c r="J107">
+        <v>600.71500000000003</v>
+      </c>
+      <c r="K107">
+        <v>0.3003575</v>
+      </c>
+      <c r="L107">
+        <v>-5.4373627500000001</v>
+      </c>
+      <c r="M107">
+        <v>-4.3696549340625168E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>-5.2557270000000003</v>
       </c>
@@ -61305,8 +65152,29 @@
       <c r="E108">
         <v>2.5502455400000512E-3</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>40</v>
+      </c>
+      <c r="H108">
+        <v>-11120.206</v>
+      </c>
+      <c r="I108">
+        <v>1197.7950000000001</v>
+      </c>
+      <c r="J108">
+        <v>802.20500000000004</v>
+      </c>
+      <c r="K108">
+        <v>0.40110250000000003</v>
+      </c>
+      <c r="L108">
+        <v>-5.5601029999999998</v>
+      </c>
+      <c r="M108">
+        <v>-7.419505513437441E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>-5.3512085000000003</v>
       </c>
@@ -61319,8 +65187,29 @@
       <c r="E109">
         <v>-2.1133352940000183E-2</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>50</v>
+      </c>
+      <c r="H109">
+        <v>-11342.5005</v>
+      </c>
+      <c r="I109">
+        <v>1000.91</v>
+      </c>
+      <c r="J109">
+        <v>999.09</v>
+      </c>
+      <c r="K109">
+        <v>0.49954500000000002</v>
+      </c>
+      <c r="L109">
+        <v>-5.6712502499999999</v>
+      </c>
+      <c r="M109">
+        <v>-9.5208721293749576E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>-5.4377639999999996</v>
       </c>
@@ -61333,8 +65222,29 @@
       <c r="E110">
         <v>-4.3686910759999309E-2</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>60</v>
+      </c>
+      <c r="H110">
+        <v>-11544.189</v>
+      </c>
+      <c r="I110">
+        <v>802.11</v>
+      </c>
+      <c r="J110">
+        <v>1197.8900000000001</v>
+      </c>
+      <c r="K110">
+        <v>0.59894500000000006</v>
+      </c>
+      <c r="L110">
+        <v>-5.7720945000000006</v>
+      </c>
+      <c r="M110">
+        <v>-0.10504270404375005</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>-5.5597139999999996</v>
       </c>
@@ -61347,8 +65257,29 @@
       <c r="E111">
         <v>-7.441091091999974E-2</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>70</v>
+      </c>
+      <c r="H111">
+        <v>-11719.7935</v>
+      </c>
+      <c r="I111">
+        <v>602.22500000000002</v>
+      </c>
+      <c r="J111">
+        <v>1397.7750000000001</v>
+      </c>
+      <c r="K111">
+        <v>0.69888749999999999</v>
+      </c>
+      <c r="L111">
+        <v>-5.8598967499999999</v>
+      </c>
+      <c r="M111">
+        <v>-0.10133797582812498</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>-5.6700549999999996</v>
       </c>
@@ -61361,8 +65292,29 @@
       <c r="E112">
         <v>-9.4684089419998951E-2</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>80</v>
+      </c>
+      <c r="H112">
+        <v>-11868.620999999999</v>
+      </c>
+      <c r="I112">
+        <v>396.7</v>
+      </c>
+      <c r="J112">
+        <v>1603.3</v>
+      </c>
+      <c r="K112">
+        <v>0.80164999999999997</v>
+      </c>
+      <c r="L112">
+        <v>-5.9343104999999996</v>
+      </c>
+      <c r="M112">
+        <v>-8.1662766187498903E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>-5.771369</v>
       </c>
@@ -61375,8 +65327,29 @@
       <c r="E113">
         <v>-0.10501928969999996</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>90</v>
+      </c>
+      <c r="H113">
+        <v>-11980.916499999999</v>
+      </c>
+      <c r="I113">
+        <v>198.73</v>
+      </c>
+      <c r="J113">
+        <v>1801.27</v>
+      </c>
+      <c r="K113">
+        <v>0.90063499999999996</v>
+      </c>
+      <c r="L113">
+        <v>-5.9904582499999997</v>
+      </c>
+      <c r="M113">
+        <v>-4.7180221381249332E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>-5.8613629999999999</v>
       </c>
@@ -61389,8 +65362,29 @@
       <c r="E114">
         <v>-0.10114591079999968</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>100</v>
+      </c>
+      <c r="H114">
+        <v>-12068.512500000001</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>2000</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>-6.0342562500000003</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>-5.9349379999999998</v>
       </c>
@@ -61404,7 +65398,7 @@
         <v>-8.1618021159999721E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>-5.9913495000000001</v>
       </c>
@@ -61417,8 +65411,29 @@
       <c r="E116">
         <v>-4.712396592000001E-2</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>1300</v>
+      </c>
+      <c r="H116" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" t="s">
+        <v>72</v>
+      </c>
+      <c r="J116" t="s">
+        <v>73</v>
+      </c>
+      <c r="K116" t="s">
+        <v>10</v>
+      </c>
+      <c r="L116" t="s">
+        <v>8</v>
+      </c>
+      <c r="M116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>-6.034243</v>
       </c>
@@ -61431,13 +65446,78 @@
       <c r="E117">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>-10202.352500000001</v>
+      </c>
+      <c r="I117">
+        <v>2000</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>-5.1011762500000009</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118">
+        <v>-10266.214</v>
+      </c>
+      <c r="I118">
+        <v>1900.0650000000001</v>
+      </c>
+      <c r="J118">
+        <v>99.935000000000002</v>
+      </c>
+      <c r="K118">
+        <v>4.9967499999999998E-2</v>
+      </c>
+      <c r="L118">
+        <v>-5.1331069999999999</v>
+      </c>
+      <c r="M118">
+        <v>1.393922762187666E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>1300</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>10</v>
+      </c>
+      <c r="H119">
+        <v>-10360.522499999999</v>
+      </c>
+      <c r="I119">
+        <v>1799.6849999999999</v>
+      </c>
+      <c r="J119">
+        <v>200.315</v>
+      </c>
+      <c r="K119">
+        <v>0.1001575</v>
+      </c>
+      <c r="L119">
+        <v>-5.1802612499999992</v>
+      </c>
+      <c r="M119">
+        <v>1.2859209409376682E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>8</v>
       </c>
@@ -61450,8 +65530,29 @@
       <c r="E120" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>15</v>
+      </c>
+      <c r="H120">
+        <v>-10471.0155</v>
+      </c>
+      <c r="I120">
+        <v>1700.4849999999999</v>
+      </c>
+      <c r="J120">
+        <v>299.51499999999999</v>
+      </c>
+      <c r="K120">
+        <v>0.14975749999999999</v>
+      </c>
+      <c r="L120">
+        <v>-5.23550775</v>
+      </c>
+      <c r="M120">
+        <v>3.1453234093758997E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>-5.1011819999999997</v>
       </c>
@@ -61464,8 +65565,29 @@
       <c r="E121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>23</v>
+      </c>
+      <c r="H121">
+        <v>-10667.487499999999</v>
+      </c>
+      <c r="I121">
+        <v>1539.64</v>
+      </c>
+      <c r="J121">
+        <v>460.36</v>
+      </c>
+      <c r="K121">
+        <v>0.23018</v>
+      </c>
+      <c r="L121">
+        <v>-5.33374375</v>
+      </c>
+      <c r="M121">
+        <v>-2.1263123174999565E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>-5.1327040000000004</v>
       </c>
@@ -61478,8 +65600,29 @@
       <c r="E122">
         <v>1.4134008842499213E-2</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>30</v>
+      </c>
+      <c r="H122">
+        <v>-10841.165000000001</v>
+      </c>
+      <c r="I122">
+        <v>1400.66</v>
+      </c>
+      <c r="J122">
+        <v>599.34</v>
+      </c>
+      <c r="K122">
+        <v>0.29966999999999999</v>
+      </c>
+      <c r="L122">
+        <v>-5.4205825000000001</v>
+      </c>
+      <c r="M122">
+        <v>-4.4310313762499609E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>-5.1807040000000004</v>
       </c>
@@ -61492,8 +65635,29 @@
       <c r="E123">
         <v>1.2790621879999131E-2</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>40</v>
+      </c>
+      <c r="H123">
+        <v>-11086.535</v>
+      </c>
+      <c r="I123">
+        <v>1199.075</v>
+      </c>
+      <c r="J123">
+        <v>800.92499999999995</v>
+      </c>
+      <c r="K123">
+        <v>0.4004625</v>
+      </c>
+      <c r="L123">
+        <v>-5.5432674999999998</v>
+      </c>
+      <c r="M123">
+        <v>-7.4468176734374225E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>-5.2341119999999997</v>
       </c>
@@ -61506,8 +65670,29 @@
       <c r="E124">
         <v>3.5010050100001688E-3</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>50</v>
+      </c>
+      <c r="H124">
+        <v>-11311.16</v>
+      </c>
+      <c r="I124">
+        <v>1001.38</v>
+      </c>
+      <c r="J124">
+        <v>998.62</v>
+      </c>
+      <c r="K124">
+        <v>0.49930999999999998</v>
+      </c>
+      <c r="L124">
+        <v>-5.6555799999999996</v>
+      </c>
+      <c r="M124">
+        <v>-9.603904241249861E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>-5.3332090000000001</v>
       </c>
@@ -61520,8 +65705,29 @@
       <c r="E125">
         <v>-2.0954593985000436E-2</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>60</v>
+      </c>
+      <c r="H125">
+        <v>-11518.22</v>
+      </c>
+      <c r="I125">
+        <v>799.55</v>
+      </c>
+      <c r="J125">
+        <v>1200.45</v>
+      </c>
+      <c r="K125">
+        <v>0.60022500000000001</v>
+      </c>
+      <c r="L125">
+        <v>-5.7591099999999997</v>
+      </c>
+      <c r="M125">
+        <v>-0.1069294508437495</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>-5.4200920000000004</v>
       </c>
@@ -61534,8 +65740,29 @@
       <c r="E126">
         <v>-4.410645064750085E-2</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>70</v>
+      </c>
+      <c r="H126">
+        <v>-11692.514999999999</v>
+      </c>
+      <c r="I126">
+        <v>598.44000000000005</v>
+      </c>
+      <c r="J126">
+        <v>1401.56</v>
+      </c>
+      <c r="K126">
+        <v>0.70077999999999996</v>
+      </c>
+      <c r="L126">
+        <v>-5.8462575000000001</v>
+      </c>
+      <c r="M126">
+        <v>-0.10176783792500022</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>-5.5428645000000003</v>
       </c>
@@ -61548,8 +65775,29 @@
       <c r="E127">
         <v>-7.4543379130000087E-2</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>80</v>
+      </c>
+      <c r="H127">
+        <v>-11836.832</v>
+      </c>
+      <c r="I127">
+        <v>399.495</v>
+      </c>
+      <c r="J127">
+        <v>1600.5050000000001</v>
+      </c>
+      <c r="K127">
+        <v>0.80025250000000003</v>
+      </c>
+      <c r="L127">
+        <v>-5.9184160000000006</v>
+      </c>
+      <c r="M127">
+        <v>-8.2610955946875286E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>-5.6545465000000004</v>
       </c>
@@ -61562,8 +65810,29 @@
       <c r="E128">
         <v>-9.6047073537500971E-2</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>90</v>
+      </c>
+      <c r="H128">
+        <v>-11951.249</v>
+      </c>
+      <c r="I128">
+        <v>199.1</v>
+      </c>
+      <c r="J128">
+        <v>1800.9</v>
+      </c>
+      <c r="K128">
+        <v>0.90045000000000008</v>
+      </c>
+      <c r="L128">
+        <v>-5.9756245000000003</v>
+      </c>
+      <c r="M128">
+        <v>-4.7838526687500327E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>-5.7591275</v>
       </c>
@@ -61576,8 +65845,29 @@
       <c r="E129">
         <v>-0.10698896261000002</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>100</v>
+      </c>
+      <c r="H129">
+        <v>-12038.344999999999</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>2000</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>-6.0191724999999998</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>-5.8470624999999998</v>
       </c>
@@ -61591,7 +65881,7 @@
         <v>-0.10203300986499997</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>-5.9185185000000002</v>
       </c>
@@ -61604,8 +65894,29 @@
       <c r="E131">
         <v>-8.2461567685000681E-2</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>1400</v>
+      </c>
+      <c r="H131" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" t="s">
+        <v>72</v>
+      </c>
+      <c r="J131" t="s">
+        <v>73</v>
+      </c>
+      <c r="K131" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" t="s">
+        <v>8</v>
+      </c>
+      <c r="M131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>-5.9757749999999996</v>
       </c>
@@ -61618,8 +65929,29 @@
       <c r="E132">
         <v>-4.8369330579999925E-2</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>-10164.733</v>
+      </c>
+      <c r="I132">
+        <v>2000</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>-5.0823665</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>-6.0191675</v>
       </c>
@@ -61632,13 +65964,78 @@
       <c r="E133">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>5</v>
+      </c>
+      <c r="H133">
+        <v>-10228.161</v>
+      </c>
+      <c r="I133">
+        <v>1900.69</v>
+      </c>
+      <c r="J133">
+        <v>99.31</v>
+      </c>
+      <c r="K133">
+        <v>4.9654999999999998E-2</v>
+      </c>
+      <c r="L133">
+        <v>-5.1140805</v>
+      </c>
+      <c r="M133">
+        <v>1.4049723856249585E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>10</v>
+      </c>
+      <c r="H134">
+        <v>-10323.202499999999</v>
+      </c>
+      <c r="I134">
+        <v>1799.905</v>
+      </c>
+      <c r="J134">
+        <v>200.095</v>
+      </c>
+      <c r="K134">
+        <v>0.1000475</v>
+      </c>
+      <c r="L134">
+        <v>-5.1616012499999995</v>
+      </c>
+      <c r="M134">
+        <v>1.2972402603126043E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>1400</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>15</v>
+      </c>
+      <c r="H135">
+        <v>-10437.746999999999</v>
+      </c>
+      <c r="I135">
+        <v>1698.44</v>
+      </c>
+      <c r="J135">
+        <v>301.56</v>
+      </c>
+      <c r="K135">
+        <v>0.15078</v>
+      </c>
+      <c r="L135">
+        <v>-5.2188734999999999</v>
+      </c>
+      <c r="M135">
+        <v>2.4569368250002555E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>8</v>
       </c>
@@ -61651,8 +66048,29 @@
       <c r="E136" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>23</v>
+      </c>
+      <c r="H136">
+        <v>-10632.3935</v>
+      </c>
+      <c r="I136">
+        <v>1539.9549999999999</v>
+      </c>
+      <c r="J136">
+        <v>460.04500000000002</v>
+      </c>
+      <c r="K136">
+        <v>0.23002250000000002</v>
+      </c>
+      <c r="L136">
+        <v>-5.3161967500000005</v>
+      </c>
+      <c r="M136">
+        <v>-2.1833750740625657E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>-5.0823039999999997</v>
       </c>
@@ -61665,8 +66083,29 @@
       <c r="E137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>30</v>
+      </c>
+      <c r="H137">
+        <v>-10809.861500000001</v>
+      </c>
+      <c r="I137">
+        <v>1399.135</v>
+      </c>
+      <c r="J137">
+        <v>600.86500000000001</v>
+      </c>
+      <c r="K137">
+        <v>0.30043249999999999</v>
+      </c>
+      <c r="L137">
+        <v>-5.4049307500000001</v>
+      </c>
+      <c r="M137">
+        <v>-4.5675518403125448E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>-5.1140005000000004</v>
       </c>
@@ -61679,8 +66118,29 @@
       <c r="E138">
         <v>1.4161738154999326E-2</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>-11054.3285</v>
+      </c>
+      <c r="I138">
+        <v>1199.085</v>
+      </c>
+      <c r="J138">
+        <v>800.91499999999996</v>
+      </c>
+      <c r="K138">
+        <v>0.40045749999999997</v>
+      </c>
+      <c r="L138">
+        <v>-5.5271642500000002</v>
+      </c>
+      <c r="M138">
+        <v>-7.572260255937513E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>-5.1620474999999999</v>
       </c>
@@ -61693,8 +66153,29 @@
       <c r="E139">
         <v>1.293613295500029E-2</v>
       </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>50</v>
+      </c>
+      <c r="H139">
+        <v>-11278.8575</v>
+      </c>
+      <c r="I139">
+        <v>1001.155</v>
+      </c>
+      <c r="J139">
+        <v>998.84500000000003</v>
+      </c>
+      <c r="K139">
+        <v>0.49942249999999999</v>
+      </c>
+      <c r="L139">
+        <v>-5.6394287500000004</v>
+      </c>
+      <c r="M139">
+        <v>-9.6777618490625716E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>-5.217587</v>
       </c>
@@ -61707,8 +66188,29 @@
       <c r="E140">
         <v>2.927674354999521E-3</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>60</v>
+      </c>
+      <c r="H140">
+        <v>-11487.976000000001</v>
+      </c>
+      <c r="I140">
+        <v>797.27499999999998</v>
+      </c>
+      <c r="J140">
+        <v>1202.7249999999999</v>
+      </c>
+      <c r="K140">
+        <v>0.60136249999999991</v>
+      </c>
+      <c r="L140">
+        <v>-5.7439879999999999</v>
+      </c>
+      <c r="M140">
+        <v>-0.10738552401562496</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>-5.3167445000000004</v>
       </c>
@@ -61721,8 +66223,29 @@
       <c r="E141">
         <v>-2.2066763980000959E-2</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>70</v>
+      </c>
+      <c r="H141">
+        <v>-11660.517</v>
+      </c>
+      <c r="I141">
+        <v>600.86500000000001</v>
+      </c>
+      <c r="J141">
+        <v>1399.135</v>
+      </c>
+      <c r="K141">
+        <v>0.69956750000000001</v>
+      </c>
+      <c r="L141">
+        <v>-5.8302585000000002</v>
+      </c>
+      <c r="M141">
+        <v>-0.10314698159687552</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>-5.4046250000000002</v>
       </c>
@@ -61735,8 +66258,29 @@
       <c r="E142">
         <v>-4.5816700000000932E-2</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>80</v>
+      </c>
+      <c r="H142">
+        <v>-11806.458500000001</v>
+      </c>
+      <c r="I142">
+        <v>399.83</v>
+      </c>
+      <c r="J142">
+        <v>1600.17</v>
+      </c>
+      <c r="K142">
+        <v>0.80008500000000005</v>
+      </c>
+      <c r="L142">
+        <v>-5.9032292500000008</v>
+      </c>
+      <c r="M142">
+        <v>-8.3477411131250179E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>-5.5277010000000004</v>
       </c>
@@ -61749,8 +66293,29 @@
       <c r="E143">
         <v>-7.5987255200000714E-2</v>
       </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>90</v>
+      </c>
+      <c r="H143">
+        <v>-11920.165499999999</v>
+      </c>
+      <c r="I143">
+        <v>200.02</v>
+      </c>
+      <c r="J143">
+        <v>1799.98</v>
+      </c>
+      <c r="K143">
+        <v>0.89998999999999996</v>
+      </c>
+      <c r="L143">
+        <v>-5.9600827499999998</v>
+      </c>
+      <c r="M143">
+        <v>-4.8255091337500389E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>-5.6385205000000003</v>
       </c>
@@ -61762,6 +66327,27 @@
       </c>
       <c r="E144">
         <v>-9.6555751680000412E-2</v>
+      </c>
+      <c r="G144">
+        <v>100</v>
+      </c>
+      <c r="H144">
+        <v>-12008.0005</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>2000</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>-6.0040002499999998</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">

--- a/UZr/UZr_lammps.xlsx
+++ b/UZr/UZr_lammps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C6C77-2694-4D4A-8E13-F350D1FCCABA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD73AED8-5557-BE4B-A2D4-4821569382AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="5920" windowWidth="35400" windowHeight="18060" activeTab="7" xr2:uid="{A20C1520-9A2D-E945-AFDD-4A9D75A1116A}"/>
   </bookViews>
@@ -40753,7 +40753,7 @@
   <dimension ref="B1:Z149"/>
   <sheetViews>
     <sheetView topLeftCell="N34" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56:W69"/>
+      <selection activeCell="AA56" sqref="AA56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66199,8 +66199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8E1C74-98EA-F24C-8D87-723252A8583D}">
   <dimension ref="B2:BG149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
